--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="311">
   <si>
     <t>序号</t>
   </si>
@@ -587,128 +587,350 @@
     <t>Suntan TS13DE2A3R3MSB030R 3.3uF 100V +/-20% 5*11mm P:2mm Radial Alum Elec Cap</t>
   </si>
   <si>
+    <t>原装红宝石铝电解电容100V3.3UF 5*11MM</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761103&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Suntan TS14012A4R7MSB030R 4.7µF 20% 100V 105°C 2K hrs Radial Alum Elec Capacitor</t>
   </si>
   <si>
+    <t>原装红宝石铝电解电容100V4.7UF 5*11MM</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761104&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Suntan TS14012A100MSB0A0R 10µF 20% 100V 105°C 2K hrs Radial Alum Elec Capacitor</t>
   </si>
   <si>
+    <t>原装红宝石铝电解电容100V10UF 5*11MM</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch&amp;skuId=4966146761105</t>
+  </si>
+  <si>
     <t>Suntan TS13DE2A220MSB040R 22uF 100V +/-20% 8*12mm P:3.5mm Radial Alum Elec Cap</t>
   </si>
   <si>
+    <t>原装红宝石铝电解电容 100v22uf 高频低阻长寿命电解电容</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=874603009607&amp;mi_id=0000xq2LGXkE8CCp5YCGFcYXR0jArWDDcwAbpxNSeRqmW2U&amp;ns=1&amp;priceTId=2147bfd317610472781031854e0e67&amp;skuId=5877136618084&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%220778c425679ab557cca8367a5f216503%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Suntan TS14012A470MSB0B0R 47µF 20% 100V 105°C 2K hrs Radial Alum Elec Capacitor</t>
   </si>
   <si>
+    <t>原装红宝石铝电解电容 100V47UF 8*16MM</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761108&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Suntan TS14012A101MSB0B0R 100µF 20% 100V 105°C 2K hrs Radial Alum Elec Capacitor</t>
   </si>
   <si>
+    <t>华威100μF100V全新直插铝电解电容 10*16MM</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=624598522050&amp;mi_id=0000UZEiDsC8zj6gbBuduDffj7tlk4d-gZ5HcPBsJQHR2gA&amp;ns=1&amp;priceTId=2147bfbf17610479059004843e0fee&amp;skuId=4589927946103&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ead1783a1ac21005802969d3ad82367b%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Panasonic ECA2AHG471 470uF 20% 100V 105°c Radial Aluminium Electrolytic</t>
   </si>
   <si>
+    <t>电解电容 100V470VF</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=16694302505&amp;mi_id=0000PwvPfT_NdYJnXCTfvbuVWucVsZaBTLmsdKXmeec51Uw&amp;ns=1&amp;priceTId=2147bf6517610479536418354e0f81&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2284a8f60741e9800ac840bcc9c8ad241b%22%7D&amp;xxc=taobaoSearch&amp;skuId=4386679978738</t>
+  </si>
+  <si>
     <t>TruCap 148 Piece 105'c Radial Aluminium Electrolytic Kit</t>
   </si>
   <si>
     <t>ST TIP120 Darlington NPN 60V 5A TO220</t>
   </si>
   <si>
+    <t>TIP120 硅达林顿NPN功率晶体管 三极管 TO-220 60V 5A</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=566368992647&amp;mi_id=00004JZFmP0lB22LMwWRFQylvI_sMn9bzKqUT9VaM30mfcg&amp;ns=1&amp;priceTId=213e08b517610481154332228e1034&amp;spm=a21n57.1.hoverItem.13&amp;utparam=%7B%22aplus_abtest%22%3A%22716b9199fbac3f2b8d6e46e00a296ef4%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>CDIL 2N2222A NPN Transistor General Purpose RF</t>
   </si>
   <si>
+    <t>美国摩托罗拉 2N2222A 金封小功率管 铁帽 2N2222三极管</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=653158377503&amp;mi_id=0000ii6yRTiEUs2J86nwsx7bdMGZV9JwCJJhZLb3I8wDyyE&amp;ns=1&amp;priceTId=213e08b517610482268106168e1034&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%22c8daa3fea6755d5773ef8cbe0905a53e%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>ST L7805CV +5V 1A Voltage Regulator</t>
+  </si>
+  <si>
+    <t>ST L7805CV 原装正品 直插 TO-220 稳压器-芯片 +5.0V /1.5A</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=978485513392&amp;mi_id=00003xeMJpebrnPJw7evL5qzK48MYLupeVMRlXQxxWZ6tfQ&amp;ns=1&amp;priceTId=2147bf7017610482982545986e0ece&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%221d9b1bf80ca037db9888c7dc6afe6be2%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
     <t xml:space="preserve">ST LD1117V33 3.3V 0.8A LDO Regulator
 </t>
   </si>
   <si>
+    <t>全新原装正品 LD1117V33 3.3V 丝印 LD33V 三极管 直插TO-220</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=647814620424&amp;mi_id=0000TjKAaRm_UrGq4CJ5_NprWKiJIMSqTRbFhtr_ms_AKvs&amp;ns=1&amp;priceTId=2147bf7017610483557292124e0ece&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22f2e9e5b380053f9430cc10b7cf5c254d%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>MH MHDB9SS 9 Way Female Solder D S+F</t>
   </si>
   <si>
+    <t>D-Sub/VGA连接器 MHDB9SS 插件 原装正品 电子元器件配单</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=884272430968&amp;mi_id=0000aacbAn5FMjvJTU2a6Bn4YmjGH0lQkNvACfxtMmYiYzM&amp;ns=1&amp;priceTId=2147bf7017610484127956325e0ece&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2249a36710f5832a8eeb33117fc49fce40%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Rapid Digital Multimeter class pack of 16</t>
   </si>
   <si>
+    <t>保联万用表数字高精度全智能防烧多功能电子电工专用工具家用套装</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?ali_refid=a3_430582_1006%3A1186300146%3AH%3A8sIoRVHnCoU%2F3QOpypFvczQapoKHiqpd%3Ac5e894a42cb08a615f2f89210a13dd32&amp;ali_trackid=282_c5e894a42cb08a615f2f89210a13dd32&amp;id=965621615037&amp;mi_id=0000A9TD3ypngO3wzZP_Ggo3LmCgF3APbQF0k9BMznTOXco&amp;mm_sceneid=1_0_242770121_0&amp;priceTId=2147873617610485480268894e1166&amp;skuId=6076898642518&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2273cafabcf9a848ebde5b32590c4bed75%22%7D&amp;xxc=ad_ztc</t>
+  </si>
+  <si>
     <t>Xytronic LF-399D 80W Digital Soldering Station</t>
   </si>
   <si>
+    <t>安立信206D焊台可调温数显电烙铁80W大功率内热式维修焊锡工具</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1351050185%3AH%3An1aMXUKxiveSZ1iiSrAmKA%3D%3D%3A84423dd1bcb7fce18c6ae7c7f1b2f258&amp;ali_trackid=318_84423dd1bcb7fce18c6ae7c7f1b2f258&amp;id=899879693777&amp;mi_id=0000bw2geo3QwNxUE9zu6CMpxDzxbgL-8OxxDZ8BdU8RbqU&amp;mm_sceneid=0_0_158410076_0&amp;priceTId=215048b817610487015284681e171f&amp;skuId=5921493730879&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%2298f4a32f892fed7d7f032d1f6aac65e1%22%7D&amp;xxc=ad_ztc</t>
+  </si>
+  <si>
     <t>Weller FT91017699N Zero Smog TL Fume Extractor Kit 2 FN</t>
   </si>
   <si>
+    <t>WELLER威乐正品ZeroSmogTL双工位烟雾净化器SmogTL吸烟仪原装ZeroSmogTL双通道FT91017699N</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=697345500643&amp;mi_id=0000sKDIiNgAfPjj5HVQmdilf6ydSUDIVF9NSC_AOlMuaiE&amp;ns=1&amp;priceTId=213e087317610494615955036e0f7e&amp;skuId=5116204271844&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2265517212dd219310ca6f28733bdf9192%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Weller FT91019299 ZeroSmog Shield Pro Fume Extraction</t>
   </si>
   <si>
     <t>R-TECH 857031 SC100e Solder 2% Rosin-Free HF Flux Halide-Free 0.7mm 250g Reel</t>
   </si>
   <si>
+    <t>包邮普通焊锡丝 焊锡线 适用于各种电烙铁250G</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=18151244641&amp;mi_id=00002hRlUj-mfhRD0CUWCu_sGa6BI_SVFABP99loHft0xm4&amp;ns=1&amp;priceTId=215048c017610499259902572e0eb5&amp;skuId=27448784984&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%22d80051ab3464eabc8302d265b8ed9c79%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Toolcraft TO-6871371 ZD-10F Third Hand with Cast Iron Base &amp; Clips</t>
   </si>
   <si>
+    <t>金属万向旋转焊接辅助夹</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=804013429898&amp;mi_id=0000BqM3PR-W8VNMbk0puzpWsfxeVDhdotDN4rl_m11YajI&amp;ns=1&amp;priceTId=215044b517610499962923105e1207&amp;skuId=5473222573641&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b75d15402c1a36a1678bf91ce8585a4%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Bernstein 8-390 Desoldering Pump Metal Teflon Tip Gold 195mm Length</t>
   </si>
   <si>
+    <t>台湾宝工防静电手动吸锡器吸锡枪吸锡泵8PK-366D/908-366A除锡</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=558745560679&amp;mi_id=00002IgQwnxbKwwVSsxhgErVOx3KFbj7Q_b7NaMXf3kH38c&amp;ns=1&amp;priceTId=2100c88b17610501151502564e08ff&amp;skuId=3642727326573&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ef0b93cf4caf69152e94e6adfd49db5c%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Draper 55806 Automatic Wire Stripper &amp; Cutter for Single Strand &amp; Ribbon Cable</t>
   </si>
   <si>
+    <t>KENNEDY电缆剥线刀剥线钳KEN-516-7950K 配用刀片</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=624884423532&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000F3_MxtZYWF9IuLh-e46-zEXa6sR6461mgmqNh-Wc_jw&amp;skuId=4593553687923&amp;priceTId=213e085c17610501533183058e1196&amp;utparam=%7B%22aplus_abtest%22%3A%22b6f364978421bf05b7fcf483b1293daa%22%7D&amp;spm=a21n57.imgsearch.item.1</t>
+  </si>
+  <si>
     <t>CK Tools T3894 Ecotronic ESD Wire Stripping Pliers (0.4 - 1.3mm Ø)</t>
   </si>
   <si>
+    <t>剥线钳电工剪电线剥皮钳拨线钳扒皮钳子 0.4-1.3mm</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=527358185518&amp;mi_id=0000pKHPDUaWtRMa_AsYkUOOaHBv5vIPn0LQG42dng5cAtQ&amp;ns=1&amp;priceTId=2147871017610502376056762e0ea6&amp;skuId=3192479350234&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228d7a2976bd2999f88345e418ea66a6a2%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Gedore 1829092 Miniature electronic wire stripping pliers</t>
   </si>
   <si>
+    <t>美佳龙6寸4合1专业级多功能剥线钳</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=888544471094&amp;mi_id=0000M6XyCnga6cabWxnD3s689MgCS2r1oiBJzh2fGapvrHU&amp;ns=1&amp;priceTId=2147885217610502772658268e0f0e&amp;skuId=5735234149082&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%22b3ed2c56a4688446a9f35b5b6012f807%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>CK Tools T3887 Ecotronic ESD Side Cutters</t>
   </si>
   <si>
+    <t>TR-25-EC 不带防飞溅斜口钳135mm 5.5寸剪铜线1.3mm吸塑包装</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=855862722271&amp;mi_id=00003qubKZRIKtijNYEIvklQc0UQ3FMy8h_79c5yegI3iRM&amp;ns=1&amp;priceTId=2147808917610503255441635e1735&amp;skuId=6049912366417&amp;spm=a21n57.imgsearch.item.15&amp;utparam=%7B%22aplus_abtest%22%3A%22224d98a4cc59a201107686597fb364d9%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Bernstein 3-0645 Stripping Side Cutters 125mm</t>
   </si>
   <si>
+    <t>YATO易尔拓斜口钳电工迷你剥剪电子斜嘴钳子模型剪电子钳偏口钳子 0.5-0.8mm² 125mm防静电 剥剪压三用 YT-2260</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=582673305537&amp;mi_id=0000ewnPq1HWGzT52FqXT5GW9xs6jOYQZe3M97ICqPTrF9E&amp;ns=1&amp;priceTId=2147876717610503826995428e103e&amp;skuId=3910601032777&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%2294a728ac6722500d62756ab86ec7a3fb%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>CK Tools T3889 Ecotronic ESD Long Snipe Nose Pliers</t>
   </si>
   <si>
+    <t>NANYU南豫专用精密电子薄口斜口钳水口钳尖嘴平口钳塑料IC板剪刀 NY-05902 NY-05902</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=670620707877&amp;mi_id=0000Q6h32hkbY9U6BSyP0J55vnJrl0ABo1se2cF22w4LZ2s&amp;ns=1&amp;priceTId=2147878a17610504412895591e1163&amp;skuId=4992655138950&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%224462380b98ab27053b38bbd3e7e435c4%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Knipex 25 01 125 Snipe Nose Side Cutting Pliers (Radio Pliers) 125mm</t>
   </si>
   <si>
+    <t>德国原装凯尼派克KNIPEX尖嘴钳2501125</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=552830501476&amp;mi_id=0000M3ivDnU-5kehVGlprHIT3bDzWt2liAWs6WGKbYY0kdw&amp;ns=1&amp;priceTId=2147bf5a17610504901715424e0eab&amp;skuId=4053736892754&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22fdf14c90be4166584c1189c470fe08d9%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Ansmann 1209-0000 APS600 Traveller 3-12V Universal PSU</t>
   </si>
   <si>
     <t>OKW A9160003 COMTEC 9V Battery Clip Metal 1 Pc Highly Durable</t>
   </si>
   <si>
+    <t>9v电池扣线连接器仪表万用表9V连接线I型 线长15CM</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=917735191994&amp;mi_id=00009NOMH-X7ro7QPl0FYk3kcVgkU6J_Sd_LaIlMDEQtx9Y&amp;ns=1&amp;priceTId=2150422217610506284266187e1102&amp;skuId=5953907278011&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%225ba3f4a5b2aa4702c2fc3b9f37c4f90f%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Comfortable BH342-1B 4 x AA Long Battery Holder</t>
   </si>
   <si>
     <t>Comfortable BH-343-2B 4 x AA Short Battery Holder</t>
   </si>
   <si>
+    <t>4节五号电池 背靠背电池盒</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=730934161231&amp;mi_id=00008dG1T7i1q9J7DS4HWmCAgkoJ9VyJ_Dhza1qEcRgp1xE&amp;ns=1&amp;priceTId=2150422217610508308316855e1102&amp;skuId=5069711233654&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2293acdcc9bc323d8da95d5939039c97e9%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Comfortable BH-331B 3 x Battery Holder AA - Studs</t>
   </si>
   <si>
+    <t>3节五号电池盒 AA电池盒外壳</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=756994061542&amp;mi_id=0000c-2jHNOAzUE6DIWGobOLfsPiNI4XInj287w_GD1N3TA&amp;ns=1&amp;priceTId=2150473917610509590172954e0df8&amp;skuId=5218427624180&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%226769e375cce1ee19032cd8722d06131a%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>CK Tools T6215A Glue Gun 80W Euro Plug</t>
   </si>
   <si>
+    <t>得力黑武士80W热熔胶枪</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=693629586152&amp;mi_id=0000u6oDsO3tqSLLrSuVENVUTfFYBkcvXOSRDTNcRiC6EcY&amp;ns=1&amp;priceTId=213e08d917610509921268155e0f7e&amp;skuId=4925328353922&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%223d9793e0450f52ed39270ec9a01f4d50%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>CK Tools T6219 125 Glue Sticks 200mm x 11mm Pack Of 125</t>
   </si>
   <si>
+    <t>高温热熔胶乳白色胶棒11MM环保绝缘防阻燃高温胶  11X270mm</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=768646328985&amp;mi_id=0000w3PvXQtI_Xyc0B2Hb5LJcav8WcrlNAzFf43QjktoYZc&amp;ns=1&amp;priceTId=213e08c517610510814968263e10cd&amp;skuId=5271914264959&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b721416402a41b5cde3e96d8f6a15756%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Proxxon 28472 FBS 240/E Precision Drill/Grinder</t>
   </si>
   <si>
+    <t>PROXXON现货 钻孔打磨雕刻切割 精密钻磨机FBS240/E德国迷你魔</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=19531861991&amp;mi_id=0000_RUOH3AOSzxTinqt8Bc_Qpa2Mn3OQ-cS_E8V7cwV8oc&amp;ns=1&amp;priceTId=213e08c517610511287353813e10cd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22e54958e651b3313026cd891460aa6c3c%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Proxxon 28 485 Micromot LBS/E Multifunction Tool 100W with Case</t>
   </si>
   <si>
+    <t>V魔微型手电钻雕刻机28家用打磨小电磨机48多功能电动220迷你1</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=987174533242&amp;mi_id=0000AEJEFlQzpSBpbHYItTVAQcNNI11ov_r7qBSc-9TYIIQ&amp;ns=1&amp;priceTId=213e03ea17610511618976737e0fdd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22256a8d02a519c6e8b21199657f47c6ef%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Proxxon 28600 Micromot MB 200 Drill Stand</t>
   </si>
   <si>
+    <t>可斜孔钻台支架 MB 200升级版20卡口德国PROXXON迷你魔</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=39511503383&amp;mi_id=0000re57xopkwYVGbtejiWrIy2atwpZlyFmKmkNn2A3i1TI&amp;ns=1&amp;priceTId=213e08c917610511979697139e0ff5&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d6ebb4ecb17d15b790c0460222a4fd8d%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Proxxon 28608 Precision Vice FMZ</t>
   </si>
   <si>
+    <t>PROXXON现货小型夹台钳精密桌面万向虎钳FMZ编号28608德国迷你魔</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=40787327161&amp;mi_id=0000CHfdZfm6QyysMuheRUuAUPyCqDx56cO730kT_8ScNH4&amp;ns=1&amp;priceTId=213e084417610512642813971e0e8a&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2216349e8c1359258a7303d8215408c350%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Bernstein 9-205-W SPANNFIX Vice 50mm Jaws 360° Rotating Ergonomic Design</t>
   </si>
   <si>
     <t>Stanley STHT0-70885 Screwdriver Set 35-Piece Durable Precise Tools</t>
   </si>
   <si>
+    <t>多功能螺丝刀套装 硬杆 45合一螺丝刀套装</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=623401908417&amp;mi_id=0000SiGKcmgN0qoMN9wKUfbJJCgtLaZaHlfL1z_v7bFW4fU&amp;ns=1&amp;priceTId=2147861f17610513319014102e1968&amp;skuId=4415397193993&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%227c19fbf6259973d4d95e06c0e83ded66%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>KS Tools 159.0005 Ergotorqueplus Screwdriver Set, 5 Pcs</t>
   </si>
   <si>
+    <t>美沃奇milwaukee米沃奇进口螺丝刀一字十字螺丝批 带磁性 高硬度 6件套(4932471807)</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=873656884962&amp;mi_id=0000tVUWyHwVKnpL2VLpwdquVzx60DmVd-FuKUnRx2YJMaU&amp;ns=1&amp;priceTId=2100c80d17610514163173496e0904&amp;skuId=5891587526825&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%22c37c2c9035fcd5b597e3f22c01bb1d78%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Alpha Wire 3051/1 RD001 22 AWG PVC Red Hook Up Wire 1KFT</t>
+  </si>
+  <si>
+    <t>Alpha Wire 3050 PK001 粉色电线0.23mm²横截面美规24AWG 1000FT</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=815109509382&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uYxpuhV8hXoDHM2x4YLuzIQZAnI-bC2PD4X7q-JMClU&amp;skuId=null&amp;priceTId=2100c89717610515328818745e090d&amp;utparam=%7B%22aplus_abtest%22%3A%22b6a46b3c39650027ff970ccac8e24f97%22%7D&amp;spm=a21n57.1.hoverItem.2</t>
   </si>
   <si>
     <t>Alpha Wire 3051/1 BK001 22 AWG PVC Black Hook Up Wire 1KFT</t>
@@ -751,7 +973,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +1002,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1239,128 +1468,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,6 +1604,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1903,8 +2138,8 @@
   <sheetPr/>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2892,348 +3127,606 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" ht="55" customHeight="1" spans="1:2">
+    <row r="70" ht="55" customHeight="1" spans="1:4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="71" ht="55" customHeight="1" spans="1:2">
+      <c r="C70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" ht="55" customHeight="1" spans="1:4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" ht="55" customHeight="1" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" ht="55" customHeight="1" spans="1:4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" ht="55" customHeight="1" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" ht="55" customHeight="1" spans="1:4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" ht="55" customHeight="1" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" ht="55" customHeight="1" spans="1:4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" ht="55" customHeight="1" spans="1:2">
+        <v>197</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" ht="55" customHeight="1" spans="1:4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" ht="55" customHeight="1" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" ht="55" customHeight="1" spans="1:4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" ht="55" customHeight="1" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" ht="55" customHeight="1" spans="1:4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" ht="55" customHeight="1" spans="1:2">
+        <v>206</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" ht="55" customHeight="1" spans="1:4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" ht="55" customHeight="1" spans="1:2">
+        <v>207</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" ht="55" customHeight="1" spans="1:4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" ht="55" customHeight="1" spans="1:2">
+        <v>210</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" ht="55" customHeight="1" spans="1:4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" ht="55" customHeight="1" spans="1:2">
+        <v>213</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" ht="55" customHeight="1" spans="1:4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" ht="55" customHeight="1" spans="1:2">
+        <v>216</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" ht="55" customHeight="1" spans="1:4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" ht="55" customHeight="1" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" ht="55" customHeight="1" spans="1:4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" ht="55" customHeight="1" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" ht="55" customHeight="1" spans="1:4">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" ht="55" customHeight="1" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" ht="55" customHeight="1" spans="1:4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" ht="55" customHeight="1" spans="1:2">
+        <v>228</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" ht="55" customHeight="1" spans="1:4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" ht="55" customHeight="1" spans="1:2">
+        <v>231</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" ht="55" customHeight="1" spans="1:4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" ht="55" customHeight="1" spans="1:2">
+        <v>232</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" ht="55" customHeight="1" spans="1:4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" ht="55" customHeight="1" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" ht="55" customHeight="1" spans="1:4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" ht="55" customHeight="1" spans="1:2">
+        <v>238</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" ht="55" customHeight="1" spans="1:4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" ht="55" customHeight="1" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" ht="55" customHeight="1" spans="1:4">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" ht="55" customHeight="1" spans="1:2">
+        <v>244</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" ht="55" customHeight="1" spans="1:4">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" ht="55" customHeight="1" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" ht="55" customHeight="1" spans="1:4">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" ht="55" customHeight="1" spans="1:2">
+        <v>250</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" ht="55" customHeight="1" spans="1:4">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" ht="55" customHeight="1" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" ht="55" customHeight="1" spans="1:4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" ht="55" customHeight="1" spans="1:2">
+        <v>256</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" ht="55" customHeight="1" spans="1:4">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" ht="55" customHeight="1" spans="1:2">
+        <v>259</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" ht="55" customHeight="1" spans="1:4">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" ht="55" customHeight="1" spans="1:2">
+        <v>262</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" ht="55" customHeight="1" spans="1:4">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" ht="55" customHeight="1" spans="1:2">
+        <v>263</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" ht="55" customHeight="1" spans="1:4">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" ht="55" customHeight="1" spans="1:2">
+        <v>266</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" ht="55" customHeight="1" spans="1:4">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="101" ht="55" customHeight="1" spans="1:2">
+        <v>267</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" ht="55" customHeight="1" spans="1:4">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="102" ht="55" customHeight="1" spans="1:2">
+        <v>270</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" ht="55" customHeight="1" spans="1:4">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="103" ht="55" customHeight="1" spans="1:2">
+        <v>273</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" ht="55" customHeight="1" spans="1:4">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" ht="55" customHeight="1" spans="1:2">
+        <v>276</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" ht="55" customHeight="1" spans="1:4">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" ht="55" customHeight="1" spans="1:2">
+        <v>279</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" ht="55" customHeight="1" spans="1:4">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" ht="55" customHeight="1" spans="1:2">
+        <v>282</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" ht="55" customHeight="1" spans="1:4">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" ht="55" customHeight="1" spans="1:2">
+        <v>285</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" ht="55" customHeight="1" spans="1:4">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="108" ht="55" customHeight="1" spans="1:2">
+        <v>288</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" ht="55" customHeight="1" spans="1:4">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="109" ht="55" customHeight="1" spans="1:2">
+        <v>291</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" ht="55" customHeight="1" spans="1:4">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="110" ht="55" customHeight="1" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" ht="55" customHeight="1" spans="1:4">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="111" ht="55" customHeight="1" spans="1:2">
+        <v>295</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="111" ht="55" customHeight="1" spans="1:4">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="112" ht="55" customHeight="1" spans="1:2">
+        <v>298</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" ht="55" customHeight="1" spans="1:4">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>227</v>
+        <v>301</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="55" customHeight="1" spans="1:2">
@@ -3241,7 +3734,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" ht="55" customHeight="1" spans="1:2">
@@ -3249,7 +3742,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" ht="55" customHeight="1" spans="1:2">
@@ -3257,7 +3750,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" ht="55" customHeight="1" spans="1:2">
@@ -3265,7 +3758,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" ht="55" customHeight="1" spans="1:2">
@@ -3273,7 +3766,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" ht="55" customHeight="1" spans="1:2">
@@ -3281,7 +3774,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" ht="55" customHeight="1" spans="1:2">
@@ -3289,7 +3782,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" ht="55" customHeight="1" spans="1:2">
@@ -3297,7 +3790,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" ht="55" customHeight="1" spans="1:2">
@@ -3305,7 +3798,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" ht="55" customHeight="1" spans="1:1">
@@ -3382,6 +3875,42 @@
     <hyperlink ref="D68" r:id="rId59" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065231&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch"/>
     <hyperlink ref="D67" r:id="rId60" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065216&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch"/>
     <hyperlink ref="D69" r:id="rId61" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065235&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D70" r:id="rId62" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761103&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D71" r:id="rId63" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761104&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D72" r:id="rId64" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch&amp;skuId=4966146761105"/>
+    <hyperlink ref="D73" r:id="rId65" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=874603009607&amp;mi_id=0000xq2LGXkE8CCp5YCGFcYXR0jArWDDcwAbpxNSeRqmW2U&amp;ns=1&amp;priceTId=2147bfd317610472781031854e0e67&amp;skuId=5877136618084&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%220778c425679ab557cca8367a5f216503%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D75" r:id="rId66" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=624598522050&amp;mi_id=0000UZEiDsC8zj6gbBuduDffj7tlk4d-gZ5HcPBsJQHR2gA&amp;ns=1&amp;priceTId=2147bfbf17610479059004843e0fee&amp;skuId=4589927946103&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ead1783a1ac21005802969d3ad82367b%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D76" r:id="rId67" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=16694302505&amp;mi_id=0000PwvPfT_NdYJnXCTfvbuVWucVsZaBTLmsdKXmeec51Uw&amp;ns=1&amp;priceTId=2147bf6517610479536418354e0f81&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2284a8f60741e9800ac840bcc9c8ad241b%22%7D&amp;xxc=taobaoSearch&amp;skuId=4386679978738"/>
+    <hyperlink ref="D78" r:id="rId68" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=566368992647&amp;mi_id=00004JZFmP0lB22LMwWRFQylvI_sMn9bzKqUT9VaM30mfcg&amp;ns=1&amp;priceTId=213e08b517610481154332228e1034&amp;spm=a21n57.1.hoverItem.13&amp;utparam=%7B%22aplus_abtest%22%3A%22716b9199fbac3f2b8d6e46e00a296ef4%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D79" r:id="rId69" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=653158377503&amp;mi_id=0000ii6yRTiEUs2J86nwsx7bdMGZV9JwCJJhZLb3I8wDyyE&amp;ns=1&amp;priceTId=213e08b517610482268106168e1034&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%22c8daa3fea6755d5773ef8cbe0905a53e%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D80" r:id="rId70" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=978485513392&amp;mi_id=00003xeMJpebrnPJw7evL5qzK48MYLupeVMRlXQxxWZ6tfQ&amp;ns=1&amp;priceTId=2147bf7017610482982545986e0ece&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%221d9b1bf80ca037db9888c7dc6afe6be2%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D81" r:id="rId71" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=647814620424&amp;mi_id=0000TjKAaRm_UrGq4CJ5_NprWKiJIMSqTRbFhtr_ms_AKvs&amp;ns=1&amp;priceTId=2147bf7017610483557292124e0ece&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22f2e9e5b380053f9430cc10b7cf5c254d%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D82" r:id="rId72" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=884272430968&amp;mi_id=0000aacbAn5FMjvJTU2a6Bn4YmjGH0lQkNvACfxtMmYiYzM&amp;ns=1&amp;priceTId=2147bf7017610484127956325e0ece&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2249a36710f5832a8eeb33117fc49fce40%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D83" r:id="rId73" display="https://detail.tmall.com/item.htm?ali_refid=a3_430582_1006%3A1186300146%3AH%3A8sIoRVHnCoU%2F3QOpypFvczQapoKHiqpd%3Ac5e894a42cb08a615f2f89210a13dd32&amp;ali_trackid=282_c5e894a42cb08a615f2f89210a13dd32&amp;id=965621615037&amp;mi_id=0000A9TD3ypngO3wzZP_Ggo3LmCgF3APbQF0k9BMznTOXco&amp;mm_sceneid=1_0_242770121_0&amp;priceTId=2147873617610485480268894e1166&amp;skuId=6076898642518&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2273cafabcf9a848ebde5b32590c4bed75%22%7D&amp;xxc=ad_ztc"/>
+    <hyperlink ref="D84" r:id="rId74" display="https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1351050185%3AH%3An1aMXUKxiveSZ1iiSrAmKA%3D%3D%3A84423dd1bcb7fce18c6ae7c7f1b2f258&amp;ali_trackid=318_84423dd1bcb7fce18c6ae7c7f1b2f258&amp;id=899879693777&amp;mi_id=0000bw2geo3QwNxUE9zu6CMpxDzxbgL-8OxxDZ8BdU8RbqU&amp;mm_sceneid=0_0_158410076_0&amp;priceTId=215048b817610487015284681e171f&amp;skuId=5921493730879&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%2298f4a32f892fed7d7f032d1f6aac65e1%22%7D&amp;xxc=ad_ztc"/>
+    <hyperlink ref="D85" r:id="rId75" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=697345500643&amp;mi_id=0000sKDIiNgAfPjj5HVQmdilf6ydSUDIVF9NSC_AOlMuaiE&amp;ns=1&amp;priceTId=213e087317610494615955036e0f7e&amp;skuId=5116204271844&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2265517212dd219310ca6f28733bdf9192%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D87" r:id="rId76" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18151244641&amp;mi_id=00002hRlUj-mfhRD0CUWCu_sGa6BI_SVFABP99loHft0xm4&amp;ns=1&amp;priceTId=215048c017610499259902572e0eb5&amp;skuId=27448784984&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%22d80051ab3464eabc8302d265b8ed9c79%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D88" r:id="rId77" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=804013429898&amp;mi_id=0000BqM3PR-W8VNMbk0puzpWsfxeVDhdotDN4rl_m11YajI&amp;ns=1&amp;priceTId=215044b517610499962923105e1207&amp;skuId=5473222573641&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b75d15402c1a36a1678bf91ce8585a4%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D89" r:id="rId78" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=558745560679&amp;mi_id=00002IgQwnxbKwwVSsxhgErVOx3KFbj7Q_b7NaMXf3kH38c&amp;ns=1&amp;priceTId=2100c88b17610501151502564e08ff&amp;skuId=3642727326573&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ef0b93cf4caf69152e94e6adfd49db5c%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D90" r:id="rId79" display="https://item.taobao.com/item.htm?id=624884423532&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000F3_MxtZYWF9IuLh-e46-zEXa6sR6461mgmqNh-Wc_jw&amp;skuId=4593553687923&amp;priceTId=213e085c17610501533183058e1196&amp;utparam=%7B%22aplus_abtest%22%3A%22b6f364978421bf05b7fcf483b1293daa%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
+    <hyperlink ref="D91" r:id="rId80" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=527358185518&amp;mi_id=0000pKHPDUaWtRMa_AsYkUOOaHBv5vIPn0LQG42dng5cAtQ&amp;ns=1&amp;priceTId=2147871017610502376056762e0ea6&amp;skuId=3192479350234&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228d7a2976bd2999f88345e418ea66a6a2%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D92" r:id="rId81" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=888544471094&amp;mi_id=0000M6XyCnga6cabWxnD3s689MgCS2r1oiBJzh2fGapvrHU&amp;ns=1&amp;priceTId=2147885217610502772658268e0f0e&amp;skuId=5735234149082&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%22b3ed2c56a4688446a9f35b5b6012f807%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D93" r:id="rId82" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=855862722271&amp;mi_id=00003qubKZRIKtijNYEIvklQc0UQ3FMy8h_79c5yegI3iRM&amp;ns=1&amp;priceTId=2147808917610503255441635e1735&amp;skuId=6049912366417&amp;spm=a21n57.imgsearch.item.15&amp;utparam=%7B%22aplus_abtest%22%3A%22224d98a4cc59a201107686597fb364d9%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D94" r:id="rId83" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=582673305537&amp;mi_id=0000ewnPq1HWGzT52FqXT5GW9xs6jOYQZe3M97ICqPTrF9E&amp;ns=1&amp;priceTId=2147876717610503826995428e103e&amp;skuId=3910601032777&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%2294a728ac6722500d62756ab86ec7a3fb%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=582673305537&amp;mi_id=0000ewnPq1HWGzT52FqXT5GW9xs6jOYQZe3M97ICqPTrF9E&amp;ns=1&amp;priceTId=2147876717610503826995428e103e&amp;skuId=3910601032777&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%2294a728ac6722"/>
+    <hyperlink ref="D95" r:id="rId84" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=670620707877&amp;mi_id=0000Q6h32hkbY9U6BSyP0J55vnJrl0ABo1se2cF22w4LZ2s&amp;ns=1&amp;priceTId=2147878a17610504412895591e1163&amp;skuId=4992655138950&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%224462380b98ab27053b38bbd3e7e435c4%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D96" r:id="rId85" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=552830501476&amp;mi_id=0000M3ivDnU-5kehVGlprHIT3bDzWt2liAWs6WGKbYY0kdw&amp;ns=1&amp;priceTId=2147bf5a17610504901715424e0eab&amp;skuId=4053736892754&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22fdf14c90be4166584c1189c470fe08d9%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D98" r:id="rId86" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=917735191994&amp;mi_id=00009NOMH-X7ro7QPl0FYk3kcVgkU6J_Sd_LaIlMDEQtx9Y&amp;ns=1&amp;priceTId=2150422217610506284266187e1102&amp;skuId=5953907278011&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%225ba3f4a5b2aa4702c2fc3b9f37c4f90f%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D100" r:id="rId87" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=730934161231&amp;mi_id=00008dG1T7i1q9J7DS4HWmCAgkoJ9VyJ_Dhza1qEcRgp1xE&amp;ns=1&amp;priceTId=2150422217610508308316855e1102&amp;skuId=5069711233654&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2293acdcc9bc323d8da95d5939039c97e9%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D101" r:id="rId88" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=756994061542&amp;mi_id=0000c-2jHNOAzUE6DIWGobOLfsPiNI4XInj287w_GD1N3TA&amp;ns=1&amp;priceTId=2150473917610509590172954e0df8&amp;skuId=5218427624180&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%226769e375cce1ee19032cd8722d06131a%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D102" r:id="rId89" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=693629586152&amp;mi_id=0000u6oDsO3tqSLLrSuVENVUTfFYBkcvXOSRDTNcRiC6EcY&amp;ns=1&amp;priceTId=213e08d917610509921268155e0f7e&amp;skuId=4925328353922&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%223d9793e0450f52ed39270ec9a01f4d50%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D103" r:id="rId90" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=768646328985&amp;mi_id=0000w3PvXQtI_Xyc0B2Hb5LJcav8WcrlNAzFf43QjktoYZc&amp;ns=1&amp;priceTId=213e08c517610510814968263e10cd&amp;skuId=5271914264959&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b721416402a41b5cde3e96d8f6a15756%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D104" r:id="rId91" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19531861991&amp;mi_id=0000_RUOH3AOSzxTinqt8Bc_Qpa2Mn3OQ-cS_E8V7cwV8oc&amp;ns=1&amp;priceTId=213e08c517610511287353813e10cd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22e54958e651b3313026cd891460aa6c3c%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D105" r:id="rId92" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=987174533242&amp;mi_id=0000AEJEFlQzpSBpbHYItTVAQcNNI11ov_r7qBSc-9TYIIQ&amp;ns=1&amp;priceTId=213e03ea17610511618976737e0fdd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22256a8d02a519c6e8b21199657f47c6ef%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D106" r:id="rId93" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=39511503383&amp;mi_id=0000re57xopkwYVGbtejiWrIy2atwpZlyFmKmkNn2A3i1TI&amp;ns=1&amp;priceTId=213e08c917610511979697139e0ff5&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d6ebb4ecb17d15b790c0460222a4fd8d%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D107" r:id="rId94" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=40787327161&amp;mi_id=0000CHfdZfm6QyysMuheRUuAUPyCqDx56cO730kT_8ScNH4&amp;ns=1&amp;priceTId=213e084417610512642813971e0e8a&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2216349e8c1359258a7303d8215408c350%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D109" r:id="rId95" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=623401908417&amp;mi_id=0000SiGKcmgN0qoMN9wKUfbJJCgtLaZaHlfL1z_v7bFW4fU&amp;ns=1&amp;priceTId=2147861f17610513319014102e1968&amp;skuId=4415397193993&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%227c19fbf6259973d4d95e06c0e83ded66%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D110" r:id="rId96" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=873656884962&amp;mi_id=0000tVUWyHwVKnpL2VLpwdquVzx60DmVd-FuKUnRx2YJMaU&amp;ns=1&amp;priceTId=2100c80d17610514163173496e0904&amp;skuId=5891587526825&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%22c37c2c9035fcd5b597e3f22c01bb1d78%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D111" r:id="rId97" display="https://item.taobao.com/item.htm?id=815109509382&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uYxpuhV8hXoDHM2x4YLuzIQZAnI-bC2PD4X7q-JMClU&amp;skuId=null&amp;priceTId=2100c89717610515328818745e090d&amp;utparam=%7B%22aplus_abtest%22%3A%22b6a46b3c39650027ff970ccac8e24f97%22%7D&amp;spm=a21n57.1.hoverItem.2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21923" windowHeight="9780"/>
+    <workbookView windowWidth="23040" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="328">
   <si>
     <t>序号</t>
   </si>
@@ -41,9 +41,6 @@
     <t>淘宝链接</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
     <t>Arduino Uno A000066 Board R3</t>
   </si>
   <si>
@@ -446,7 +443,7 @@
     <t>TruConnect Std 2.1mm DC Power Line Socket</t>
   </si>
   <si>
-    <t>DC005 公头5.5-2.1MM圆孔公母头 焊线式DC直流电源插座</t>
+    <t>DC005 5.5*2.1 插头母</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489063&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch</t>
@@ -455,7 +452,8 @@
     <t>RVFM AP-140 2.1mm Standard DC Power Plug</t>
   </si>
   <si>
-    <t>DC005 公头5.5-2.1MM圆孔公母头 焊线式DC直流电源插头</t>
+    <t xml:space="preserve">
+DC005 5.5*2.1 插头公</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489061&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch</t>
@@ -464,7 +462,7 @@
     <t>TruConnect Std 2.5mm DC Power Line Socket</t>
   </si>
   <si>
-    <t>DC005 公头5.5-2.5MM圆孔公母头 焊线式DC直流电源插座</t>
+    <t>DC005 5.5*2.5 插头母</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489064&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch</t>
@@ -473,7 +471,8 @@
     <t>TruConnect 2.5mm Standard DC Power Plug</t>
   </si>
   <si>
-    <t>DC005 公头5.5-2.5MM圆孔公母头 焊线式DC直流电源插头</t>
+    <t xml:space="preserve">
+DC005 5.5*2.5 插头公</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489062&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch</t>
@@ -482,7 +481,7 @@
     <t>BKL 072209 Electronic Straight Coupler 5.5mm External, 2.5mm Internal</t>
   </si>
   <si>
-    <t>DC直流电源母口接线焊接插头5.5*2.5圆口插座</t>
+    <t>5.5*2.5mm母插头(通针)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5269976165838&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da960afd5b0b08d14f4de43%22%7D&amp;xxc=taobaoSearch</t>
@@ -491,7 +490,7 @@
     <t>BKL 072208 Electronic Straight Coupler 5.5mm External 2.1mm Internal</t>
   </si>
   <si>
-    <t>DC直流电源母口接线焊接插头5.5*2.1圆口插座</t>
+    <t>5.5*2.1mm母插头(通针)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5326903369490&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da960afd5b0b08d14f4de43%22%7D&amp;xxc=taobaoSearch</t>
@@ -939,28 +938,82 @@
     <t>UniStrand 1/0.6 Single Core Equipment Wire Multi Pack (11 Colours x 100m)</t>
   </si>
   <si>
+    <t>各类电机线连接线普通聚氯乙烯护套软电缆</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=618747076131&amp;mi_id=0000VVWYs6N6Rsv8XS-PIM720TXHSQ2I8oCPKO3sw5oJZqE&amp;ns=1&amp;priceTId=2150491117610981582055519e0ed2&amp;skuId=4545530971841&amp;spm=a21n57.1.hoverItem.16&amp;utparam=%7B%22aplus_abtest%22%3A%225ebb8190e14318f752ccf79b864f0f88%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>TruComponents 654945 Jumper set 140 pc(s)</t>
   </si>
   <si>
+    <t>140根盒装14种长度面包板洞洞板连接线跳线DIY实验插线导线材</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=681609889897&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uHR-61u5J-znrbX-srkMA738AxtfCajbUi-6rQLdnrs&amp;skuId=4884674673366&amp;priceTId=215048b917610982415134915e1784&amp;utparam=%7B%22aplus_abtest%22%3A%22fbc72dc81dbc08f8476473456108f008%22%7D&amp;spm=a21n57.imgsearch.item.1</t>
+  </si>
+  <si>
     <t>Velleman WJW351 Jumper Set Multicolour Includes 7 Colours</t>
   </si>
   <si>
+    <t>盒装14种长度140根优质跳线面包板线面包板专用线面包板跳线</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=669570807944&amp;mi_id=000044W3vWc4cl8layfj3vVf6i0LxO-LnJmK-80zqE71XtA&amp;ns=1&amp;priceTId=215044be17610982787996174e1090&amp;skuId=6096961646542&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%220e4c2864e01fd7daf54dd68946a85c6b%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>TruComponents 654961 Jumper set Multi-coloured Pins:1 75 Parts</t>
   </si>
   <si>
+    <t>面包板 连接线 一共65条</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=574524799299&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=00009BVTnf-BQB7y1Nc290kRPik0jF9IdpsUkbwzJFhVeD0&amp;priceTId=215048cd17610984217965731e11b1&amp;utparam=%7B%22aplus_abtest%22%3A%228e81830a73a4a58d14c774c34a0446b5%22%7D&amp;spm=a21n57.imgsearch.item.1</t>
+  </si>
+  <si>
     <t>Mueller BU-00286 Test Lead Kit Insulated Alligator Clips Multi-Colour</t>
   </si>
   <si>
+    <t>两头鳄鱼夹测试线中大5彩色测试夹连接线电子物理教学实验夹子线</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=26461756959&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000fWxfnfXP7L7sO5Pp_bJZs9oj8NUzFHO6i8NnoCIt68g&amp;skuId=65937336241&amp;priceTId=215049b517610984603237652e1181&amp;utparam=%7B%22aplus_abtest%22%3A%224bf638efe6c1898c90cc8df1045c2351%22%7D&amp;spm=a21n57.imgsearch.item.1</t>
+  </si>
+  <si>
     <t>R-TECH 524614 Pk of 10 Croc Leads (Red,Black,Blue,Green,Yellow) 380mm</t>
   </si>
   <si>
+    <t>电学物理实验用直流输出绝缘护套鳄鱼夹转4mm香蕉灯笼插头测试线</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=832128231277&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000hyrtaTCgvHABgNqa-AAVsOkqSSdtQlfgkr-LPWVmlIE&amp;skuId=5745786619208&amp;priceTId=2150407e17610984964692572e1120&amp;utparam=%7B%22aplus_abtest%22%3A%22cdb092202b8a42d637f6671b4078608e%22%7D&amp;spm=a21n57.imgsearch.item.1</t>
+  </si>
+  <si>
     <t>Rapid JW-D1-FF Jumper Wires Dupont Cable F-F 26AWG 1 Pin 2.54mm Pitch-15cm Pk10</t>
   </si>
   <si>
+    <t>杜邦线母对母</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263479&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Rapid JW-D1-MM Jumper Wires Dupont Cable M-M 26AWG 1 Pin 2.54mm Pitch-15cm Pk10</t>
   </si>
   <si>
+    <t>杜邦线公对公</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263497&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
     <t>Rapid JW-D1-MF Jumper Wires Dupont Cable M-F 26AWG 1 Pin 2.54mm Pitch-15cm Pk10</t>
+  </si>
+  <si>
+    <t>杜邦线公对母</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263492&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,9 +1659,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2138,8 +2188,8 @@
   <sheetPr/>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2148,11 +2198,11 @@
     <col min="2" max="2" width="34.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.8888888888889" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="73.6018518518518" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="55" customHeight="1" spans="1:6">
+    <row r="1" ht="55" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,25 +2215,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="55" customHeight="1" spans="1:6">
+    </row>
+    <row r="2" ht="55" customHeight="1" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:4">
@@ -2191,13 +2235,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:4">
@@ -2205,13 +2249,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:4">
@@ -2219,13 +2263,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" ht="55" customHeight="1" spans="1:4">
@@ -2233,13 +2277,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="55" customHeight="1" spans="1:4">
@@ -2247,13 +2291,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" ht="55" customHeight="1" spans="1:4">
@@ -2261,13 +2305,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" ht="55" customHeight="1" spans="1:4">
@@ -2275,13 +2319,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:4">
@@ -2289,13 +2333,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="1:4">
@@ -2303,13 +2347,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" ht="55" customHeight="1" spans="1:4">
@@ -2317,13 +2361,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" ht="55" customHeight="1" spans="1:4">
@@ -2331,13 +2375,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" ht="55" customHeight="1" spans="1:4">
@@ -2345,13 +2389,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" ht="55" customHeight="1" spans="1:4">
@@ -2359,13 +2403,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="1:4">
@@ -2373,13 +2417,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" ht="55" customHeight="1" spans="1:4">
@@ -2387,13 +2431,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" ht="55" customHeight="1" spans="1:4">
@@ -2401,13 +2445,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" ht="55" customHeight="1" spans="1:4">
@@ -2415,13 +2459,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" ht="55" customHeight="1" spans="1:4">
@@ -2429,13 +2473,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" ht="55" customHeight="1" spans="1:4">
@@ -2443,13 +2487,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" ht="55" customHeight="1" spans="1:4">
@@ -2457,13 +2501,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" ht="55" customHeight="1" spans="1:4">
@@ -2471,13 +2515,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" ht="55" customHeight="1" spans="1:4">
@@ -2485,13 +2529,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:4">
@@ -2499,13 +2543,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" ht="55" customHeight="1" spans="1:4">
@@ -2513,13 +2557,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="55" customHeight="1" spans="1:6">
@@ -2527,13 +2571,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F27" s="1">
         <v>20</v>
@@ -2544,13 +2588,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" ht="55" customHeight="1" spans="1:4">
@@ -2558,13 +2602,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" ht="55" customHeight="1" spans="1:4">
@@ -2572,13 +2616,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="55" customHeight="1" spans="1:4">
@@ -2586,13 +2630,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" ht="55" customHeight="1" spans="1:4">
@@ -2600,13 +2644,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" ht="55" customHeight="1" spans="1:4">
@@ -2614,13 +2658,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" ht="55" customHeight="1" spans="1:4">
@@ -2628,13 +2672,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" ht="55" customHeight="1" spans="1:4">
@@ -2642,13 +2686,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" ht="55" customHeight="1" spans="1:4">
@@ -2656,13 +2700,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" ht="55" customHeight="1" spans="1:4">
@@ -2670,13 +2714,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" ht="55" customHeight="1" spans="1:4">
@@ -2684,13 +2728,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" ht="55" customHeight="1" spans="1:4">
@@ -2698,13 +2742,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" ht="55" customHeight="1" spans="1:4">
@@ -2712,13 +2756,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="1:4">
@@ -2726,13 +2770,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" ht="55" customHeight="1" spans="1:4">
@@ -2740,13 +2784,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" ht="55" customHeight="1" spans="1:4">
@@ -2754,13 +2798,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" ht="55" customHeight="1" spans="1:4">
@@ -2768,13 +2812,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" ht="55" customHeight="1" spans="1:4">
@@ -2782,13 +2826,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" ht="55" customHeight="1" spans="1:4">
@@ -2796,13 +2840,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="55" customHeight="1" spans="1:4">
@@ -2810,13 +2854,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" ht="55" customHeight="1" spans="1:4">
@@ -2824,13 +2868,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="49" ht="55" customHeight="1" spans="1:4">
@@ -2838,13 +2882,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" ht="55" customHeight="1" spans="1:4">
@@ -2852,13 +2896,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="51" ht="55" customHeight="1" spans="1:4">
@@ -2866,13 +2910,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="52" ht="55" customHeight="1" spans="1:4">
@@ -2880,13 +2924,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="53" ht="55" customHeight="1" spans="1:4">
@@ -2894,13 +2938,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" ht="55" customHeight="1" spans="1:4">
@@ -2908,13 +2952,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="55" ht="55" customHeight="1" spans="1:4">
@@ -2922,13 +2966,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="56" ht="55" customHeight="1" spans="1:4">
@@ -2936,13 +2980,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="57" ht="55" customHeight="1" spans="1:4">
@@ -2950,13 +2994,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="58" ht="55" customHeight="1" spans="1:4">
@@ -2964,13 +3008,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="59" ht="55" customHeight="1" spans="1:4">
@@ -2978,13 +3022,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="55" customHeight="1" spans="1:4">
@@ -2992,13 +3036,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="61" ht="55" customHeight="1" spans="1:4">
@@ -3006,13 +3050,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="62" ht="55" customHeight="1" spans="1:4">
@@ -3020,13 +3064,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="63" ht="55" customHeight="1" spans="1:4">
@@ -3034,13 +3078,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="64" ht="55" customHeight="1" spans="1:4">
@@ -3048,13 +3092,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="65" ht="55" customHeight="1" spans="1:4">
@@ -3062,13 +3106,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="66" ht="55" customHeight="1" spans="1:4">
@@ -3076,13 +3120,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="55" customHeight="1" spans="1:4">
@@ -3090,13 +3134,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="68" ht="55" customHeight="1" spans="1:4">
@@ -3104,13 +3148,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="69" ht="55" customHeight="1" spans="1:4">
@@ -3118,13 +3162,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="70" ht="55" customHeight="1" spans="1:4">
@@ -3132,13 +3176,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" ht="55" customHeight="1" spans="1:4">
@@ -3146,13 +3190,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="72" ht="55" customHeight="1" spans="1:4">
@@ -3160,13 +3204,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="73" ht="55" customHeight="1" spans="1:4">
@@ -3174,13 +3218,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="74" ht="55" customHeight="1" spans="1:4">
@@ -3188,13 +3232,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="75" ht="55" customHeight="1" spans="1:4">
@@ -3202,13 +3246,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="76" ht="55" customHeight="1" spans="1:4">
@@ -3216,13 +3260,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="77" ht="55" customHeight="1" spans="1:4">
@@ -3230,13 +3274,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="55" customHeight="1" spans="1:4">
@@ -3244,13 +3288,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="79" ht="55" customHeight="1" spans="1:4">
@@ -3258,13 +3302,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="80" ht="55" customHeight="1" spans="1:4">
@@ -3272,13 +3316,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="81" ht="55" customHeight="1" spans="1:4">
@@ -3286,13 +3330,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="82" ht="55" customHeight="1" spans="1:4">
@@ -3300,13 +3344,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="83" ht="55" customHeight="1" spans="1:4">
@@ -3314,13 +3358,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="84" ht="55" customHeight="1" spans="1:4">
@@ -3328,13 +3372,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="85" ht="55" customHeight="1" spans="1:4">
@@ -3342,13 +3386,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="86" ht="55" customHeight="1" spans="1:4">
@@ -3356,13 +3400,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="55" customHeight="1" spans="1:4">
@@ -3370,13 +3414,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="88" ht="55" customHeight="1" spans="1:4">
@@ -3384,13 +3428,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="89" ht="55" customHeight="1" spans="1:4">
@@ -3398,13 +3442,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="90" ht="55" customHeight="1" spans="1:4">
@@ -3412,13 +3456,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="91" ht="55" customHeight="1" spans="1:4">
@@ -3426,13 +3470,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="92" ht="55" customHeight="1" spans="1:4">
@@ -3440,13 +3484,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="93" ht="55" customHeight="1" spans="1:4">
@@ -3454,13 +3498,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="94" ht="55" customHeight="1" spans="1:4">
@@ -3468,13 +3512,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="95" ht="55" customHeight="1" spans="1:4">
@@ -3482,13 +3526,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="96" ht="55" customHeight="1" spans="1:4">
@@ -3496,13 +3540,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="97" ht="55" customHeight="1" spans="1:4">
@@ -3510,13 +3554,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="55" customHeight="1" spans="1:4">
@@ -3524,13 +3568,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="99" ht="55" customHeight="1" spans="1:4">
@@ -3538,13 +3582,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="55" customHeight="1" spans="1:4">
@@ -3552,13 +3596,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="1:4">
@@ -3566,13 +3610,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="102" ht="55" customHeight="1" spans="1:4">
@@ -3580,13 +3624,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="103" ht="55" customHeight="1" spans="1:4">
@@ -3594,13 +3638,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="104" ht="55" customHeight="1" spans="1:4">
@@ -3608,13 +3652,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="105" ht="55" customHeight="1" spans="1:4">
@@ -3622,13 +3666,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="106" ht="55" customHeight="1" spans="1:4">
@@ -3636,13 +3680,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="107" ht="55" customHeight="1" spans="1:4">
@@ -3650,13 +3694,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="108" ht="55" customHeight="1" spans="1:4">
@@ -3664,13 +3708,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="55" customHeight="1" spans="1:4">
@@ -3678,13 +3722,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="110" ht="55" customHeight="1" spans="1:4">
@@ -3692,13 +3736,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="111" ht="55" customHeight="1" spans="1:4">
@@ -3706,13 +3750,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="112" ht="55" customHeight="1" spans="1:4">
@@ -3720,85 +3764,139 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" ht="55" customHeight="1" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="55" customHeight="1" spans="1:4">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="114" ht="55" customHeight="1" spans="1:2">
+      <c r="D113" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" ht="55" customHeight="1" spans="1:4">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="115" ht="55" customHeight="1" spans="1:2">
+        <v>304</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="115" ht="55" customHeight="1" spans="1:4">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="116" ht="55" customHeight="1" spans="1:2">
+        <v>307</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" ht="55" customHeight="1" spans="1:4">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="117" ht="55" customHeight="1" spans="1:2">
+        <v>310</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" ht="55" customHeight="1" spans="1:4">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="118" ht="55" customHeight="1" spans="1:2">
+        <v>313</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" ht="55" customHeight="1" spans="1:4">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="119" ht="55" customHeight="1" spans="1:2">
+        <v>316</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" ht="55" customHeight="1" spans="1:4">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="120" ht="55" customHeight="1" spans="1:2">
+        <v>319</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" ht="55" customHeight="1" spans="1:4">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" ht="55" customHeight="1" spans="1:2">
+        <v>322</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" ht="55" customHeight="1" spans="1:4">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="122" ht="55" customHeight="1" spans="1:1">
@@ -3911,6 +4009,15 @@
     <hyperlink ref="D109" r:id="rId95" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=623401908417&amp;mi_id=0000SiGKcmgN0qoMN9wKUfbJJCgtLaZaHlfL1z_v7bFW4fU&amp;ns=1&amp;priceTId=2147861f17610513319014102e1968&amp;skuId=4415397193993&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%227c19fbf6259973d4d95e06c0e83ded66%22%7D&amp;xxc=taobaoSearch"/>
     <hyperlink ref="D110" r:id="rId96" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=873656884962&amp;mi_id=0000tVUWyHwVKnpL2VLpwdquVzx60DmVd-FuKUnRx2YJMaU&amp;ns=1&amp;priceTId=2100c80d17610514163173496e0904&amp;skuId=5891587526825&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%22c37c2c9035fcd5b597e3f22c01bb1d78%22%7D&amp;xxc=taobaoSearch"/>
     <hyperlink ref="D111" r:id="rId97" display="https://item.taobao.com/item.htm?id=815109509382&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uYxpuhV8hXoDHM2x4YLuzIQZAnI-bC2PD4X7q-JMClU&amp;skuId=null&amp;priceTId=2100c89717610515328818745e090d&amp;utparam=%7B%22aplus_abtest%22%3A%22b6a46b3c39650027ff970ccac8e24f97%22%7D&amp;spm=a21n57.1.hoverItem.2"/>
+    <hyperlink ref="D113" r:id="rId98" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=618747076131&amp;mi_id=0000VVWYs6N6Rsv8XS-PIM720TXHSQ2I8oCPKO3sw5oJZqE&amp;ns=1&amp;priceTId=2150491117610981582055519e0ed2&amp;skuId=4545530971841&amp;spm=a21n57.1.hoverItem.16&amp;utparam=%7B%22aplus_abtest%22%3A%225ebb8190e14318f752ccf79b864f0f88%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D114" r:id="rId99" display="https://item.taobao.com/item.htm?id=681609889897&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uHR-61u5J-znrbX-srkMA738AxtfCajbUi-6rQLdnrs&amp;skuId=4884674673366&amp;priceTId=215048b917610982415134915e1784&amp;utparam=%7B%22aplus_abtest%22%3A%22fbc72dc81dbc08f8476473456108f008%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
+    <hyperlink ref="D115" r:id="rId100" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=669570807944&amp;mi_id=000044W3vWc4cl8layfj3vVf6i0LxO-LnJmK-80zqE71XtA&amp;ns=1&amp;priceTId=215044be17610982787996174e1090&amp;skuId=6096961646542&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%220e4c2864e01fd7daf54dd68946a85c6b%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D116" r:id="rId101" display="https://item.taobao.com/item.htm?id=574524799299&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=00009BVTnf-BQB7y1Nc290kRPik0jF9IdpsUkbwzJFhVeD0&amp;priceTId=215048cd17610984217965731e11b1&amp;utparam=%7B%22aplus_abtest%22%3A%228e81830a73a4a58d14c774c34a0446b5%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
+    <hyperlink ref="D117" r:id="rId102" display="https://item.taobao.com/item.htm?id=26461756959&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000fWxfnfXP7L7sO5Pp_bJZs9oj8NUzFHO6i8NnoCIt68g&amp;skuId=65937336241&amp;priceTId=215049b517610984603237652e1181&amp;utparam=%7B%22aplus_abtest%22%3A%224bf638efe6c1898c90cc8df1045c2351%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
+    <hyperlink ref="D118" r:id="rId103" display="https://item.taobao.com/item.htm?id=832128231277&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000hyrtaTCgvHABgNqa-AAVsOkqSSdtQlfgkr-LPWVmlIE&amp;skuId=5745786619208&amp;priceTId=2150407e17610984964692572e1120&amp;utparam=%7B%22aplus_abtest%22%3A%22cdb092202b8a42d637f6671b4078608e%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
+    <hyperlink ref="D119" r:id="rId104" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263479&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D120" r:id="rId105" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263497&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D121" r:id="rId106" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263492&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9324"/>
+    <workbookView windowWidth="11520" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="332">
   <si>
     <t>序号</t>
   </si>
@@ -92,7 +92,7 @@
     <t>TruOpto OSNR5164A 5mm Red LED pack of 1000</t>
   </si>
   <si>
-    <t>5mm发光二极管LED灯泡</t>
+    <t>5mm发光二极管LED灯泡 红(60个)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387543&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch</t>
@@ -101,31 +101,43 @@
     <t>TruOpto OSNG5164A 5mm Green LED pack of 1000</t>
   </si>
   <si>
+    <t>5mm发光二极管LED灯泡 绿(60个)</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387545&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
     <t>TruOpto OSNY5164A 5mm Yellow LED pack of 1000</t>
   </si>
   <si>
+    <t>5mm发光二极管LED灯泡 黄(60个)</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387546&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
     <t>TruOpto OSUB5164A X100 5mm 3.3V Blue LED pack of 100</t>
   </si>
   <si>
+    <t>5mm发光二极管LED灯泡 蓝(60个)</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387548&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
     <t>TruOpto OSPW5162A X100 5mm 3.3V White LED pack of 100</t>
   </si>
   <si>
+    <t>5mm发光二极管LED灯泡 白(60个)</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387547&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
     <t>TruOpto OSTAMA5B61A Full Colour 5mm LED 60° Water Clear</t>
   </si>
   <si>
-    <t>高亮WS2812B插件灯珠F5RGB内置IC 5V可编程直插5MM幻彩全彩LED</t>
+    <t>5mm发光二极管LED灯泡 透明</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=739465262357&amp;mi_id=0000Y-qLtQq_Ean7wgVwruTQn18m6r-RoenCnfq16FGZSXQ&amp;ns=1&amp;priceTId=214786b517610409912652305e0ff7&amp;skuId=5103247297852&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%220c7adc515a5c5861a35c3c09adb6413a%22%7D&amp;xxc=taobaoSearch</t>
@@ -143,7 +155,7 @@
     <t>Royal Ohm CFR0W4J0101A10 100R Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 100R</t>
+    <t>1/4W碳膜电阻5% 100R(1000个)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182612992989&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch</t>
@@ -152,7 +164,7 @@
     <t>Royal Ohm CFR0W4J0471A10 470R Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 470R</t>
+    <t>1/4W碳膜电阻5% 470R(1000个)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182614380002&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch</t>
@@ -161,7 +173,7 @@
     <t>Royal Ohm CFR0W4J0104A10 100K Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻100K</t>
+    <t>1/4W碳膜电阻100K(1000个)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=604718473635&amp;mi_id=0000SBg2ZUJB8BRViugstRIRoyEzJ7VsIFrNrGrCS6AzuSE&amp;ns=1&amp;priceTId=2147865217610414320463511e0eaf&amp;skuId=4408835755725&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%225fc682daff4d7d4940dd38e0c0473961%22%7D&amp;xxc=taobaoSearch</t>
@@ -170,7 +182,7 @@
     <t>Royal Ohm CFR0W4J0221KIT 220R Carbon Film Resistor 0.25W - Pack of 100</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 220R</t>
+    <t>1/4W碳膜电阻5% 220R(1000个)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182612992994&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch</t>
@@ -179,7 +191,7 @@
     <t>Royal Ohm CFR0W4J0103A10 10K Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 10K</t>
+    <t>1/4W碳膜电阻5% 10K(1000个)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=18603576610&amp;mi_id=0000wlkBlD5cbmc0xDRcaNyoIS-XAqlzioBkyVkEoWSRgfs&amp;ns=1&amp;priceTId=2147bffc17610415480952627e115e&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22df3c0aeda8f6de06c9cecbbec168a9e4%22%7D&amp;xxc=taobaoSearch</t>
@@ -188,7 +200,7 @@
     <t>Royal Ohm CFR0W4J0223A10 22K Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 22K</t>
+    <t>1/4W碳膜电阻5% 22K(1000个)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=16341959861&amp;mi_id=0000YOgS5Sye3Zel2mbfsrH_oe74Th-5XPI283H5wIjXy3g&amp;ns=1&amp;priceTId=214780a617610415820177169e0e57&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%223dbc041e42472da0a06ca8143ddcf3b6%22%7D&amp;xxc=taobaoSearch</t>
@@ -197,7 +209,7 @@
     <t>Royal Ohm CFR0W4J0561A10 560R Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 560R</t>
+    <t>1/4W碳膜电阻5% 560R(1000个)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182614380004&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch</t>
@@ -206,7 +218,7 @@
     <t>Royal Ohm CFR0W4J0102A10 1K Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 1K</t>
+    <t>1/4W碳膜电阻5% 1K(1000个)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=18603504854&amp;mi_id=0000zM9nTkNdCkiZPS6fIUIA2qRV0B1gLBftCrbcyvx5dQ4&amp;ns=1&amp;priceTId=2147866017610418971842694e0e6a&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%229d243e5bdf320caa3003b3f40141e3d3%22%7D&amp;xxc=taobaoSearch</t>
@@ -215,7 +227,7 @@
     <t>Royal Ohm CFR0W4J0472A10 4K7 Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 4K7</t>
+    <t>1/4W碳膜电阻5% 4K7(1000个)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=18603592519&amp;mi_id=0000nzYZeJekurkyBnBPtR2jyjNoFqIy7PI3H9XCoWvMOBw&amp;ns=1&amp;priceTId=2147866017610419326964417e0e6a&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%222b7f69128d00aabf837af71bc27218a6%22%7D&amp;xxc=taobaoSearch</t>
@@ -224,7 +236,7 @@
     <t>Royal Ohm CFR0W4J0105A10 1M Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 1M</t>
+    <t>1/4W碳膜电阻5% 1M(1000个)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137087&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac707eecc2a2bcd93f8%22%7D&amp;xxc=taobaoSearch</t>
@@ -233,7 +245,7 @@
     <t>Royal Ohm CFR0W4J0106A10 10M Carbon Film Resistor 0.25W - Box 1000</t>
   </si>
   <si>
-    <t>1/4W碳膜电阻5% 10M</t>
+    <t>1/4W碳膜电阻5% 10M(1000个)</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137093&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac707eecc2a2bcd93f8%22%7D&amp;xxc=taobaoSearch</t>
@@ -2188,8 +2200,8 @@
   <sheetPr/>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2240,7 +2252,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2268,7 +2280,7 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2296,7 +2308,7 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2322,10 +2334,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:4">
@@ -2333,13 +2345,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="1:4">
@@ -2347,13 +2359,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="55" customHeight="1" spans="1:4">
@@ -2361,13 +2373,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="55" customHeight="1" spans="1:4">
@@ -2375,13 +2387,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="55" customHeight="1" spans="1:4">
@@ -2389,13 +2401,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="55" customHeight="1" spans="1:4">
@@ -2403,13 +2415,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="1:4">
@@ -2417,13 +2429,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="55" customHeight="1" spans="1:4">
@@ -2431,13 +2443,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="55" customHeight="1" spans="1:4">
@@ -2445,13 +2457,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="55" customHeight="1" spans="1:4">
@@ -2459,13 +2471,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="55" customHeight="1" spans="1:4">
@@ -2473,13 +2485,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="55" customHeight="1" spans="1:4">
@@ -2487,13 +2499,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="55" customHeight="1" spans="1:4">
@@ -2501,13 +2513,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="55" customHeight="1" spans="1:4">
@@ -2515,13 +2527,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="55" customHeight="1" spans="1:4">
@@ -2529,13 +2541,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:4">
@@ -2543,13 +2555,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="55" customHeight="1" spans="1:4">
@@ -2557,7 +2569,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -2571,13 +2583,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1">
         <v>20</v>
@@ -2588,13 +2600,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" ht="55" customHeight="1" spans="1:4">
@@ -2602,13 +2614,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="55" customHeight="1" spans="1:4">
@@ -2616,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -2630,13 +2642,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" ht="55" customHeight="1" spans="1:4">
@@ -2644,13 +2656,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" ht="55" customHeight="1" spans="1:4">
@@ -2658,13 +2670,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="55" customHeight="1" spans="1:4">
@@ -2672,13 +2684,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" ht="55" customHeight="1" spans="1:4">
@@ -2686,13 +2698,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" ht="55" customHeight="1" spans="1:4">
@@ -2700,13 +2712,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="55" customHeight="1" spans="1:4">
@@ -2714,13 +2726,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" ht="55" customHeight="1" spans="1:4">
@@ -2728,13 +2740,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" ht="55" customHeight="1" spans="1:4">
@@ -2742,13 +2754,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="55" customHeight="1" spans="1:4">
@@ -2756,13 +2768,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="1:4">
@@ -2770,13 +2782,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" ht="55" customHeight="1" spans="1:4">
@@ -2784,13 +2796,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" ht="55" customHeight="1" spans="1:4">
@@ -2798,13 +2810,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" ht="55" customHeight="1" spans="1:4">
@@ -2812,13 +2824,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="55" customHeight="1" spans="1:4">
@@ -2826,13 +2838,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" ht="55" customHeight="1" spans="1:4">
@@ -2840,7 +2852,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>16</v>
@@ -2854,13 +2866,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" ht="55" customHeight="1" spans="1:4">
@@ -2868,13 +2880,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" ht="55" customHeight="1" spans="1:4">
@@ -2882,13 +2894,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="55" customHeight="1" spans="1:4">
@@ -2896,13 +2908,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" ht="55" customHeight="1" spans="1:4">
@@ -2910,13 +2922,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" ht="55" customHeight="1" spans="1:4">
@@ -2924,13 +2936,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" ht="55" customHeight="1" spans="1:4">
@@ -2938,13 +2950,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" ht="55" customHeight="1" spans="1:4">
@@ -2952,13 +2964,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" ht="55" customHeight="1" spans="1:4">
@@ -2966,13 +2978,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" ht="55" customHeight="1" spans="1:4">
@@ -2980,13 +2992,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" ht="55" customHeight="1" spans="1:4">
@@ -2994,13 +3006,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" ht="55" customHeight="1" spans="1:4">
@@ -3008,13 +3020,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="55" customHeight="1" spans="1:4">
@@ -3022,7 +3034,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
@@ -3036,13 +3048,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" ht="55" customHeight="1" spans="1:4">
@@ -3050,13 +3062,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="62" ht="55" customHeight="1" spans="1:4">
@@ -3064,13 +3076,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" ht="55" customHeight="1" spans="1:4">
@@ -3078,13 +3090,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" ht="55" customHeight="1" spans="1:4">
@@ -3092,13 +3104,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" ht="55" customHeight="1" spans="1:4">
@@ -3106,13 +3118,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" ht="55" customHeight="1" spans="1:4">
@@ -3120,7 +3132,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>16</v>
@@ -3134,13 +3146,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" ht="55" customHeight="1" spans="1:4">
@@ -3148,13 +3160,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" ht="55" customHeight="1" spans="1:4">
@@ -3162,13 +3174,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" ht="55" customHeight="1" spans="1:4">
@@ -3176,13 +3188,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" ht="55" customHeight="1" spans="1:4">
@@ -3190,13 +3202,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" ht="55" customHeight="1" spans="1:4">
@@ -3204,13 +3216,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" ht="55" customHeight="1" spans="1:4">
@@ -3218,13 +3230,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" ht="55" customHeight="1" spans="1:4">
@@ -3232,13 +3244,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75" ht="55" customHeight="1" spans="1:4">
@@ -3246,13 +3258,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" ht="55" customHeight="1" spans="1:4">
@@ -3260,13 +3272,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" ht="55" customHeight="1" spans="1:4">
@@ -3274,7 +3286,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
@@ -3288,13 +3300,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" ht="55" customHeight="1" spans="1:4">
@@ -3302,13 +3314,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" ht="55" customHeight="1" spans="1:4">
@@ -3316,13 +3328,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" ht="55" customHeight="1" spans="1:4">
@@ -3330,13 +3342,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" ht="55" customHeight="1" spans="1:4">
@@ -3344,13 +3356,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" ht="55" customHeight="1" spans="1:4">
@@ -3358,13 +3370,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" ht="55" customHeight="1" spans="1:4">
@@ -3372,13 +3384,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" ht="55" customHeight="1" spans="1:4">
@@ -3386,13 +3398,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" ht="55" customHeight="1" spans="1:4">
@@ -3400,7 +3412,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>16</v>
@@ -3414,13 +3426,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" ht="55" customHeight="1" spans="1:4">
@@ -3428,13 +3440,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" ht="55" customHeight="1" spans="1:4">
@@ -3442,13 +3454,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" ht="55" customHeight="1" spans="1:4">
@@ -3456,13 +3468,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" ht="55" customHeight="1" spans="1:4">
@@ -3470,13 +3482,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" ht="55" customHeight="1" spans="1:4">
@@ -3484,13 +3496,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="55" customHeight="1" spans="1:4">
@@ -3498,13 +3510,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" ht="55" customHeight="1" spans="1:4">
@@ -3512,13 +3524,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" ht="55" customHeight="1" spans="1:4">
@@ -3526,13 +3538,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" ht="55" customHeight="1" spans="1:4">
@@ -3540,13 +3552,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" ht="55" customHeight="1" spans="1:4">
@@ -3554,7 +3566,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -3568,13 +3580,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" ht="55" customHeight="1" spans="1:4">
@@ -3582,7 +3594,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
@@ -3596,13 +3608,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="1:4">
@@ -3610,13 +3622,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" ht="55" customHeight="1" spans="1:4">
@@ -3624,13 +3636,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" ht="55" customHeight="1" spans="1:4">
@@ -3638,13 +3650,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" ht="55" customHeight="1" spans="1:4">
@@ -3652,13 +3664,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" ht="55" customHeight="1" spans="1:4">
@@ -3666,13 +3678,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" ht="55" customHeight="1" spans="1:4">
@@ -3680,13 +3692,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" ht="55" customHeight="1" spans="1:4">
@@ -3694,13 +3706,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" ht="55" customHeight="1" spans="1:4">
@@ -3708,7 +3720,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
@@ -3722,13 +3734,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" ht="55" customHeight="1" spans="1:4">
@@ -3736,13 +3748,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" ht="55" customHeight="1" spans="1:4">
@@ -3750,13 +3762,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" ht="55" customHeight="1" spans="1:4">
@@ -3764,7 +3776,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>16</v>
@@ -3778,13 +3790,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" ht="55" customHeight="1" spans="1:4">
@@ -3792,13 +3804,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" ht="55" customHeight="1" spans="1:4">
@@ -3806,13 +3818,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" ht="55" customHeight="1" spans="1:4">
@@ -3820,13 +3832,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" ht="55" customHeight="1" spans="1:4">
@@ -3834,13 +3846,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" ht="55" customHeight="1" spans="1:4">
@@ -3848,13 +3860,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" ht="55" customHeight="1" spans="1:4">
@@ -3862,13 +3874,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" ht="55" customHeight="1" spans="1:4">
@@ -3876,13 +3888,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" ht="55" customHeight="1" spans="1:4">
@@ -3890,13 +3902,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" ht="55" customHeight="1" spans="1:1">
@@ -3912,112 +3924,114 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=862086995867&amp;mi_id=0000PAn0IFi39BNSCpI64KmwLCtEujV1F9dAuuax_99Whrw&amp;ns=1&amp;priceTId=214786e517610341627497546e1a48&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%222b3716808787930b0f613b65acf71e42%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=862086995867&amp;mi_id=0000PAn0IFi39BNSCpI64KmwLCtEujV1F9dAuuax_99Whrw&amp;ns=1&amp;priceTId=214786e517610341627497546e1a48&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%222b3716808787930b0f613b65acf71e42%22%"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://item.taobao.com/item.htm?id=657075396364&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=000044MsQ-yM7N8Zy8Pxqh4BFwuEVu0OIs29i3x9mvnycoY&amp;skuId=4920926787937&amp;priceTId=214780b517610342592168083e0ef5&amp;utparam=%7B%22aplus_abtest%22%3A%2212857004b37c2d414b745b674c6b8843%22%7D&amp;spm=a21n57.1.hoverItem.3"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=835325822497&amp;mi_id=0000HR54bYMLkNwZEP5DI4PrUh3ciBNN1TKqirGT9IkJ_9w&amp;ns=1&amp;priceTId=2147bfc817610400035802667e0e66&amp;skuId=5588853668891&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%226d58b9680021fb5dc5441f4ebd79a498%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=560966681209&amp;mi_id=0000Ctm51fHkD8grYgoAmEIRjtMTfhxAB1Z1dvqmaesIM8U&amp;ns=1&amp;priceTId=214786be17610402580814198e0f3e&amp;skuId=4851232786661&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%220bc44d604c8366d008a194ec58b3d7f7%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=561286667019&amp;mi_id=0000EG3ol81LopNicjC2nctHZj2yw7U8omB-ydH6CYTCxAk&amp;ns=1&amp;priceTId=2147812917610403571661031e0e79&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%22f24941003460f76b7a53265b21e83951%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387543&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://item.taobao.com/item.htm?id=657075396364&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=000044MsQ-yM7N8Zy8Pxqh4BFwuEVu0OIs29i3x9mvnycoY&amp;skuId=4920926787937&amp;priceTId=214780b517610342592168083e0ef5&amp;utparam=%7B%22aplus_abtest%22%3A%2212857004b37c2d414b745b674c6b8843%22%7D&amp;spm=a21n57.1.hoverItem.3" tooltip="https://item.taobao.com/item.htm?id=657075396364&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=000044MsQ-yM7N8Zy8Pxqh4BFwuEVu0OIs29i3x9mvnycoY&amp;skuId=4920926787937&amp;priceTId=214780b517610342592168083e0ef5&amp;utparam=%7B%22aplus_abtest%22%3A%2212857004b37c2d414b745b67"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=835325822497&amp;mi_id=0000HR54bYMLkNwZEP5DI4PrUh3ciBNN1TKqirGT9IkJ_9w&amp;ns=1&amp;priceTId=2147bfc817610400035802667e0e66&amp;skuId=5588853668891&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%226d58b9680021fb5dc5441f4ebd79a498%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=835325822497&amp;mi_id=0000HR54bYMLkNwZEP5DI4PrUh3ciBNN1TKqirGT9IkJ_9w&amp;ns=1&amp;priceTId=2147bfc817610400035802667e0e66&amp;skuId=5588853668891&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%226d58b9680021fb5"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=560966681209&amp;mi_id=0000Ctm51fHkD8grYgoAmEIRjtMTfhxAB1Z1dvqmaesIM8U&amp;ns=1&amp;priceTId=214786be17610402580814198e0f3e&amp;skuId=4851232786661&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%220bc44d604c8366d008a194ec58b3d7f7%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=560966681209&amp;mi_id=0000Ctm51fHkD8grYgoAmEIRjtMTfhxAB1Z1dvqmaesIM8U&amp;ns=1&amp;priceTId=214786be17610402580814198e0f3e&amp;skuId=4851232786661&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%220bc44d604c836"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=561286667019&amp;mi_id=0000EG3ol81LopNicjC2nctHZj2yw7U8omB-ydH6CYTCxAk&amp;ns=1&amp;priceTId=2147812917610403571661031e0e79&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%22f24941003460f76b7a53265b21e83951%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=561286667019&amp;mi_id=0000EG3ol81LopNicjC2nctHZj2yw7U8omB-ydH6CYTCxAk&amp;ns=1&amp;priceTId=2147812917610403571661031e0e79&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%22f24941003460f76b7a53265b21e83951%"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387543&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387543&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec917"/>
     <hyperlink ref="D9" r:id="rId7" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387545&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387546&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387548&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387547&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=739465262357&amp;mi_id=0000Y-qLtQq_Ean7wgVwruTQn18m6r-RoenCnfq16FGZSXQ&amp;ns=1&amp;priceTId=214786b517610409912652305e0ff7&amp;skuId=5103247297852&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%220c7adc515a5c5861a35c3c09adb6413a%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=988399088446&amp;mi_id=0000MD9MoN3U4he-YmnODXMiv1KCqNBAXsOV9Y99tlfjsi4&amp;ns=1&amp;priceTId=214786b517610410618136295e0ff7&amp;spm=a21n57.imgsearch.item.17&amp;utparam=%7B%22aplus_abtest%22%3A%22fca8623cc551bec890418e5658ff75ec%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387546&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387546&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec917"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387548&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387548&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec917"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387547&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec91741032ae5fd5f5ab8178%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=674866929367&amp;mi_id=0000l6PJQ0jxN9P9ASnHcTp3UgD3f5VyvIJihgb2X4n2Neg&amp;ns=1&amp;priceTId=2147807b17610405381095512e19fe&amp;skuId=5029993387547&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%225c3a50f0ec917"/>
+    <hyperlink ref="D13" r:id="rId11" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=739465262357&amp;mi_id=0000Y-qLtQq_Ean7wgVwruTQn18m6r-RoenCnfq16FGZSXQ&amp;ns=1&amp;priceTId=214786b517610409912652305e0ff7&amp;skuId=5103247297852&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%220c7adc515a5c5861a35c3c09adb6413a%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=739465262357&amp;mi_id=0000Y-qLtQq_Ean7wgVwruTQn18m6r-RoenCnfq16FGZSXQ&amp;ns=1&amp;priceTId=214786b517610409912652305e0ff7&amp;skuId=5103247297852&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%220c7adc515a5c5"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=988399088446&amp;mi_id=0000MD9MoN3U4he-YmnODXMiv1KCqNBAXsOV9Y99tlfjsi4&amp;ns=1&amp;priceTId=214786b517610410618136295e0ff7&amp;spm=a21n57.imgsearch.item.17&amp;utparam=%7B%22aplus_abtest%22%3A%22fca8623cc551bec890418e5658ff75ec%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=988399088446&amp;mi_id=0000MD9MoN3U4he-YmnODXMiv1KCqNBAXsOV9Y99tlfjsi4&amp;ns=1&amp;priceTId=214786b517610410618136295e0ff7&amp;spm=a21n57.imgsearch.item.17&amp;utparam=%7B%22aplus_abtest%22%3A%22fca8623cc551bec890418e5658ff75ec"/>
     <hyperlink ref="D16" r:id="rId13" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182614380002&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182614380002&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f"/>
-    <hyperlink ref="D17" r:id="rId14" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=604718473635&amp;mi_id=0000SBg2ZUJB8BRViugstRIRoyEzJ7VsIFrNrGrCS6AzuSE&amp;ns=1&amp;priceTId=2147865217610414320463511e0eaf&amp;skuId=4408835755725&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%225fc682daff4d7d4940dd38e0c0473961%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D17" r:id="rId14" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=604718473635&amp;mi_id=0000SBg2ZUJB8BRViugstRIRoyEzJ7VsIFrNrGrCS6AzuSE&amp;ns=1&amp;priceTId=2147865217610414320463511e0eaf&amp;skuId=4408835755725&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%225fc682daff4d7d4940dd38e0c0473961%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=604718473635&amp;mi_id=0000SBg2ZUJB8BRViugstRIRoyEzJ7VsIFrNrGrCS6AzuSE&amp;ns=1&amp;priceTId=2147865217610414320463511e0eaf&amp;skuId=4408835755725&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%225fc682daff4d7d4"/>
     <hyperlink ref="D18" r:id="rId15" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182612992994&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182612992994&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f"/>
-    <hyperlink ref="D19" r:id="rId16" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603576610&amp;mi_id=0000wlkBlD5cbmc0xDRcaNyoIS-XAqlzioBkyVkEoWSRgfs&amp;ns=1&amp;priceTId=2147bffc17610415480952627e115e&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22df3c0aeda8f6de06c9cecbbec168a9e4%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D20" r:id="rId17" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=16341959861&amp;mi_id=0000YOgS5Sye3Zel2mbfsrH_oe74Th-5XPI283H5wIjXy3g&amp;ns=1&amp;priceTId=214780a617610415820177169e0e57&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%223dbc041e42472da0a06ca8143ddcf3b6%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D21" r:id="rId18" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182614380004&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D15" r:id="rId19" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182612992989&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603504854&amp;mi_id=0000zM9nTkNdCkiZPS6fIUIA2qRV0B1gLBftCrbcyvx5dQ4&amp;ns=1&amp;priceTId=2147866017610418971842694e0e6a&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%229d243e5bdf320caa3003b3f40141e3d3%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D23" r:id="rId21" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603592519&amp;mi_id=0000nzYZeJekurkyBnBPtR2jyjNoFqIy7PI3H9XCoWvMOBw&amp;ns=1&amp;priceTId=2147866017610419326964417e0e6a&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%222b7f69128d00aabf837af71bc27218a6%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D24" r:id="rId22" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137087&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac707eecc2a2bcd93f8%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D25" r:id="rId23" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137093&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac707eecc2a2bcd93f8%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D27" r:id="rId24" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=521523840104&amp;mi_id=0000mqtXrw2gh0vbx3BtMKh4xF78hgni1MiBx4qsMLiOmbc&amp;ns=1&amp;priceTId=213e08eb17610422694373928e0fda&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%22490903a8ab4cd1cbdf8a98267586f600%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D28" r:id="rId25" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=804944063980&amp;mi_id=0000ezqQpjKoCJaixy6gDi6UncjAkUSSMmfaQr47ey1_TT8&amp;ns=1&amp;priceTId=213e087c17610423808766498e0ef5&amp;skuId=5645128482684&amp;spm=a21n57.1.hoverItem.6&amp;utparam=%7B%22aplus_abtest%22%3A%22f82de1e741998c55ea701da702682909%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D31" r:id="rId26" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=713457017922&amp;mi_id=0000I5B4jjY6swGHzzKsXHfLI_EZXmpswoKmMDgWbIiZsFA&amp;ns=1&amp;priceTId=2147bf8517610432281796330e0f76&amp;skuId=4992646552565&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22bd9b730c2becb4e1ba5cb52bc0ab18fc%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D32" r:id="rId27" display="https://item.taobao.com/item.htm?ali_refid=a3_430582_1006%3A1685622210%3AH%3AgRg%2FrjaA2JaCxorjb1p1UQ%3D%3D%3A7247cf9514e71a7ecca3fb1383b7885e&amp;ali_trackid=282_7247cf9514e71a7ecca3fb1383b7885e&amp;id=952645314261&amp;mi_id=0000RURNjJAg94mOGEILfZMHM2YpPWZxuS3wfFvYLdD7sds&amp;mm_sceneid=1_0_5500865977_0&amp;priceTId=2147879d17610432862452181e1043&amp;skuId=6039474287242&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22fdfaca9e30c2e7b6bdd9b97a5afaec1c%22%7D&amp;xxc=ad_ztc"/>
-    <hyperlink ref="D33" r:id="rId28" display="https://item.taobao.com/item.htm?id=679007596356&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000vkK7x_L2kwcX3y4f1Nn08y1IgzIzVrBVznL3fc_X02A&amp;skuId=null&amp;priceTId=214786de17610433487215759e0f9e&amp;utparam=%7B%22aplus_abtest%22%3A%22f0d16ecbd0deb867fe9beba1bb54e9b9%22%7D&amp;spm=a21n57.1.hoverItem.1"/>
+    <hyperlink ref="D19" r:id="rId16" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603576610&amp;mi_id=0000wlkBlD5cbmc0xDRcaNyoIS-XAqlzioBkyVkEoWSRgfs&amp;ns=1&amp;priceTId=2147bffc17610415480952627e115e&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22df3c0aeda8f6de06c9cecbbec168a9e4%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603576610&amp;mi_id=0000wlkBlD5cbmc0xDRcaNyoIS-XAqlzioBkyVkEoWSRgfs&amp;ns=1&amp;priceTId=2147bffc17610415480952627e115e&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22df3c0aeda8f6de06c9cecbbec168a9e4%22%7"/>
+    <hyperlink ref="D20" r:id="rId17" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=16341959861&amp;mi_id=0000YOgS5Sye3Zel2mbfsrH_oe74Th-5XPI283H5wIjXy3g&amp;ns=1&amp;priceTId=214780a617610415820177169e0e57&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%223dbc041e42472da0a06ca8143ddcf3b6%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=16341959861&amp;mi_id=0000YOgS5Sye3Zel2mbfsrH_oe74Th-5XPI283H5wIjXy3g&amp;ns=1&amp;priceTId=214780a617610415820177169e0e57&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%223dbc041e42472da0a06ca8143ddcf3b6%22%7"/>
+    <hyperlink ref="D21" r:id="rId18" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182614380004&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182614380004&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f"/>
+    <hyperlink ref="D15" r:id="rId19" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182612992989&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f41def9de8d6be085b%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=599200992706&amp;mi_id=00003RkOvylz8ZfrRD52oTq9jQIkL-OUeJWfE00bGlwX6C4&amp;ns=1&amp;priceTId=214780eb17610417139223687e1006&amp;skuId=4182612992989&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b431fefff99e08f"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603504854&amp;mi_id=0000zM9nTkNdCkiZPS6fIUIA2qRV0B1gLBftCrbcyvx5dQ4&amp;ns=1&amp;priceTId=2147866017610418971842694e0e6a&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%229d243e5bdf320caa3003b3f40141e3d3%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603504854&amp;mi_id=0000zM9nTkNdCkiZPS6fIUIA2qRV0B1gLBftCrbcyvx5dQ4&amp;ns=1&amp;priceTId=2147866017610418971842694e0e6a&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%229d243e5bdf320caa3003b3f40141e3d3%22%7"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603592519&amp;mi_id=0000nzYZeJekurkyBnBPtR2jyjNoFqIy7PI3H9XCoWvMOBw&amp;ns=1&amp;priceTId=2147866017610419326964417e0e6a&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%222b7f69128d00aabf837af71bc27218a6%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=18603592519&amp;mi_id=0000nzYZeJekurkyBnBPtR2jyjNoFqIy7PI3H9XCoWvMOBw&amp;ns=1&amp;priceTId=2147866017610419326964417e0e6a&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%222b7f69128d00aabf837af71bc27218a6%22%7"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137087&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac707eecc2a2bcd93f8%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137087&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137093&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac707eecc2a2bcd93f8%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=581848173938&amp;mi_id=0000SLV6Y2IdMCtYLaiIpVq94z86xaVU6hKXVzD8s53IvIk&amp;ns=1&amp;priceTId=2147866017610419489875246e0e6a&amp;skuId=3896070137093&amp;spm=a21n57.1.hoverItem.17&amp;utparam=%7B%22aplus_abtest%22%3A%22b0b06b6f71e59ac"/>
+    <hyperlink ref="D27" r:id="rId24" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=521523840104&amp;mi_id=0000mqtXrw2gh0vbx3BtMKh4xF78hgni1MiBx4qsMLiOmbc&amp;ns=1&amp;priceTId=213e08eb17610422694373928e0fda&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%22490903a8ab4cd1cbdf8a98267586f600%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=521523840104&amp;mi_id=0000mqtXrw2gh0vbx3BtMKh4xF78hgni1MiBx4qsMLiOmbc&amp;ns=1&amp;priceTId=213e08eb17610422694373928e0fda&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%22490903a8ab4cd1cbdf8a98267586f600%22%"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=804944063980&amp;mi_id=0000ezqQpjKoCJaixy6gDi6UncjAkUSSMmfaQr47ey1_TT8&amp;ns=1&amp;priceTId=213e087c17610423808766498e0ef5&amp;skuId=5645128482684&amp;spm=a21n57.1.hoverItem.6&amp;utparam=%7B%22aplus_abtest%22%3A%22f82de1e741998c55ea701da702682909%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=804944063980&amp;mi_id=0000ezqQpjKoCJaixy6gDi6UncjAkUSSMmfaQr47ey1_TT8&amp;ns=1&amp;priceTId=213e087c17610423808766498e0ef5&amp;skuId=5645128482684&amp;spm=a21n57.1.hoverItem.6&amp;utparam=%7B%22aplus_abtest%22%3A%22f82de1e741998c55"/>
+    <hyperlink ref="D31" r:id="rId26" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=713457017922&amp;mi_id=0000I5B4jjY6swGHzzKsXHfLI_EZXmpswoKmMDgWbIiZsFA&amp;ns=1&amp;priceTId=2147bf8517610432281796330e0f76&amp;skuId=4992646552565&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22bd9b730c2becb4e1ba5cb52bc0ab18fc%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=713457017922&amp;mi_id=0000I5B4jjY6swGHzzKsXHfLI_EZXmpswoKmMDgWbIiZsFA&amp;ns=1&amp;priceTId=2147bf8517610432281796330e0f76&amp;skuId=4992646552565&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22bd9b730c2becb4e1"/>
+    <hyperlink ref="D32" r:id="rId27" display="https://item.taobao.com/item.htm?ali_refid=a3_430582_1006%3A1685622210%3AH%3AgRg%2FrjaA2JaCxorjb1p1UQ%3D%3D%3A7247cf9514e71a7ecca3fb1383b7885e&amp;ali_trackid=282_7247cf9514e71a7ecca3fb1383b7885e&amp;id=952645314261&amp;mi_id=0000RURNjJAg94mOGEILfZMHM2YpPWZxuS3wfFvYLdD7sds&amp;mm_sceneid=1_0_5500865977_0&amp;priceTId=2147879d17610432862452181e1043&amp;skuId=6039474287242&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22fdfaca9e30c2e7b6bdd9b97a5afaec1c%22%7D&amp;xxc=ad_ztc" tooltip="https://item.taobao.com/item.htm?ali_refid=a3_430582_1006%3A1685622210%3AH%3AgRg%2FrjaA2JaCxorjb1p1UQ%3D%3D%3A7247cf9514e71a7ecca3fb1383b7885e&amp;ali_trackid=282_7247cf9514e71a7ecca3fb1383b7885e&amp;id=952645314261&amp;mi_id=0000RURNjJAg94mOGEILfZMHM2YpPWZxuS3wfFvYL"/>
+    <hyperlink ref="D33" r:id="rId28" display="https://item.taobao.com/item.htm?id=679007596356&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000vkK7x_L2kwcX3y4f1Nn08y1IgzIzVrBVznL3fc_X02A&amp;skuId=null&amp;priceTId=214786de17610433487215759e0f9e&amp;utparam=%7B%22aplus_abtest%22%3A%22f0d16ecbd0deb867fe9beba1bb54e9b9%22%7D&amp;spm=a21n57.1.hoverItem.1" tooltip="https://item.taobao.com/item.htm?id=679007596356&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000vkK7x_L2kwcX3y4f1Nn08y1IgzIzVrBVznL3fc_X02A&amp;skuId=null&amp;priceTId=214786de17610433487215759e0f9e&amp;utparam=%7B%22aplus_abtest%22%3A%22f0d16ecbd0deb867fe9beba1bb54e9b9%"/>
     <hyperlink ref="D34" r:id="rId29" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303384&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3fe52a89166f536b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303384&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3"/>
-    <hyperlink ref="D35" r:id="rId30" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303385&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3fe52a89166f536b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D36" r:id="rId31" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303389&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3fe52a89166f536b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D39" r:id="rId32" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303390&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3fe52a89166f536b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D37" r:id="rId33" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100397&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D38" r:id="rId34" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100399&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D40" r:id="rId35" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100398&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D41" r:id="rId36" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100393&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D42" r:id="rId34" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100399&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D43" r:id="rId37" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=712590663319&amp;mi_id=0000mGhi99wl6nw9UbNRyuzDsHQLbxRru2K-UXw9pDH5Eyo&amp;ns=1&amp;priceTId=2147bfab17610437335655015e107d&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d042cce4c628f3b4dd6045fdb89afe3c%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D44" r:id="rId38" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=753534420443&amp;mi_id=00003jNh5jXTCyu8KWByVI7FlYC9xh-X8Gyt0UJIONGiZSs&amp;ns=1&amp;priceTId=2147880b17610438478141739e0e86&amp;skuId=5368996443796&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%2240867c091e3d06b07578f423a2bba7e2%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D45" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=19055956318&amp;mi_id=0000OxSgXvDKFyKJRFLAZzvpXLMqzJSFTL4S4PdB-l5SzPY&amp;ns=1&amp;priceTId=2147812817610439084291432e1221&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2280fa8a84b790db67a41ad1b9fe2a177b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D47" r:id="rId40" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=593998042132&amp;mi_id=0000QMPAJuTRoQ1wO7hGwN35B-RyTa9QXcXlSEtDvVu6n9A&amp;ns=1&amp;priceTId=2147bf9517610440014196689e11d4&amp;skuId=4277341667665&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22867f768761d13006100203f9ec72243b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D48" r:id="rId41" display="https://item.taobao.com/item.htm?id=952648266938&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000h1kEUCSfMHXrB2yTRt3MyEByJCcyg_AcGYzOS41zNjc&amp;skuId=null&amp;priceTId=2147bf9517610440511251699e11d4&amp;utparam=%7B%22aplus_abtest%22%3A%22b0ddc8550f435bb7a5437145cac3e1dd%22%7D&amp;spm=a21n57.1.hoverItem.6"/>
-    <hyperlink ref="D49" r:id="rId42" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=524989298548&amp;mi_id=0000kpSpA3cmOzCeYQ_WibUnRqpwOZeOsjkkO7qnCM2xlUE&amp;ns=1&amp;priceTId=2147bf9517610441324846178e11d4&amp;skuId=3697749289427&amp;spm=a21n57.1.hoverItem.9&amp;utparam=%7B%22aplus_abtest%22%3A%22c1a86b63c7257c5b4756ac46ac94b08c%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D50" r:id="rId43" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=4171668697&amp;mi_id=0000xzkM10Hi5UdR9yUkIkpmwnJ782gCBFdITH6lgTdBb48&amp;ns=1&amp;priceTId=2100cffb17610443695026182e0935&amp;skuId=4388328190220&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22c427a3c50d0d36cdeca685408a13b5e0%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D51" r:id="rId44" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=574455554348&amp;mi_id=0000XO_AZPALpeTS-7KLmbyFbtVuMJcvQBHdRSC82nTP_Cw&amp;ns=1&amp;priceTId=2100cffb17610444411018762e0935&amp;skuId=4818768319296&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22329bfff76060bff18aaa1a6b2907aef2%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D52" r:id="rId45" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=19711178720&amp;mi_id=00001HJVRKk0DD79oQZNgDaG-x9iclKMNtFlJKHinGWmIDk&amp;ns=1&amp;priceTId=2100c80717610445243932086e08e8&amp;skuId=4556678918909&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%222f3d162016d100b74eba8c3659daee3b%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D35" r:id="rId30" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303385&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3fe52a89166f536b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303385&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3"/>
+    <hyperlink ref="D36" r:id="rId31" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303389&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3fe52a89166f536b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303389&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3"/>
+    <hyperlink ref="D39" r:id="rId32" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303390&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3fe52a89166f536b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=19695288310&amp;mi_id=0000z4sP_Iin2lIiHl-ZYliMWRq3LjNxnAQAL015erkSQ3U&amp;ns=1&amp;priceTId=215049e417610434716023720e0e74&amp;skuId=3757961303390&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b398b4940d0ec6b3"/>
+    <hyperlink ref="D37" r:id="rId33" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100397&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100397&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70d"/>
+    <hyperlink ref="D38" r:id="rId34" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100399&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100399&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70d"/>
+    <hyperlink ref="D40" r:id="rId35" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100398&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100398&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70d"/>
+    <hyperlink ref="D41" r:id="rId36" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100393&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100393&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70d"/>
+    <hyperlink ref="D42" r:id="rId34" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100399&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70dd425e57b5e60f5ea5%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=687530592634&amp;mi_id=0000KloveSmqSHZNaBBpmBVFQYpsXQafF9mR6QXm2fRJWZY&amp;ns=1&amp;priceTId=21504a0e17610435332471645e10a3&amp;skuId=4900830100399&amp;spm=a21n57.1.hoverItem.11&amp;utparam=%7B%22aplus_abtest%22%3A%22ede2038ae61d70d"/>
+    <hyperlink ref="D43" r:id="rId37" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=712590663319&amp;mi_id=0000mGhi99wl6nw9UbNRyuzDsHQLbxRru2K-UXw9pDH5Eyo&amp;ns=1&amp;priceTId=2147bfab17610437335655015e107d&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d042cce4c628f3b4dd6045fdb89afe3c%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=712590663319&amp;mi_id=0000mGhi99wl6nw9UbNRyuzDsHQLbxRru2K-UXw9pDH5Eyo&amp;ns=1&amp;priceTId=2147bfab17610437335655015e107d&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d042cce4c628f3b4dd6045fdb89afe3c%"/>
+    <hyperlink ref="D44" r:id="rId38" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=753534420443&amp;mi_id=00003jNh5jXTCyu8KWByVI7FlYC9xh-X8Gyt0UJIONGiZSs&amp;ns=1&amp;priceTId=2147880b17610438478141739e0e86&amp;skuId=5368996443796&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%2240867c091e3d06b07578f423a2bba7e2%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=753534420443&amp;mi_id=00003jNh5jXTCyu8KWByVI7FlYC9xh-X8Gyt0UJIONGiZSs&amp;ns=1&amp;priceTId=2147880b17610438478141739e0e86&amp;skuId=5368996443796&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%2240867c091e3d0"/>
+    <hyperlink ref="D45" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=19055956318&amp;mi_id=0000OxSgXvDKFyKJRFLAZzvpXLMqzJSFTL4S4PdB-l5SzPY&amp;ns=1&amp;priceTId=2147812817610439084291432e1221&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2280fa8a84b790db67a41ad1b9fe2a177b%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=19055956318&amp;mi_id=0000OxSgXvDKFyKJRFLAZzvpXLMqzJSFTL4S4PdB-l5SzPY&amp;ns=1&amp;priceTId=2147812817610439084291432e1221&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2280fa8a84b790db67a41ad1b9fe2a177b%"/>
+    <hyperlink ref="D47" r:id="rId40" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=593998042132&amp;mi_id=0000QMPAJuTRoQ1wO7hGwN35B-RyTa9QXcXlSEtDvVu6n9A&amp;ns=1&amp;priceTId=2147bf9517610440014196689e11d4&amp;skuId=4277341667665&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22867f768761d13006100203f9ec72243b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=593998042132&amp;mi_id=0000QMPAJuTRoQ1wO7hGwN35B-RyTa9QXcXlSEtDvVu6n9A&amp;ns=1&amp;priceTId=2147bf9517610440014196689e11d4&amp;skuId=4277341667665&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22867f768761d13"/>
+    <hyperlink ref="D48" r:id="rId41" display="https://item.taobao.com/item.htm?id=952648266938&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000h1kEUCSfMHXrB2yTRt3MyEByJCcyg_AcGYzOS41zNjc&amp;skuId=null&amp;priceTId=2147bf9517610440511251699e11d4&amp;utparam=%7B%22aplus_abtest%22%3A%22b0ddc8550f435bb7a5437145cac3e1dd%22%7D&amp;spm=a21n57.1.hoverItem.6" tooltip="https://item.taobao.com/item.htm?id=952648266938&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000h1kEUCSfMHXrB2yTRt3MyEByJCcyg_AcGYzOS41zNjc&amp;skuId=null&amp;priceTId=2147bf9517610440511251699e11d4&amp;utparam=%7B%22aplus_abtest%22%3A%22b0ddc8550f435bb7a5437145cac3e1dd%"/>
+    <hyperlink ref="D49" r:id="rId42" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=524989298548&amp;mi_id=0000kpSpA3cmOzCeYQ_WibUnRqpwOZeOsjkkO7qnCM2xlUE&amp;ns=1&amp;priceTId=2147bf9517610441324846178e11d4&amp;skuId=3697749289427&amp;spm=a21n57.1.hoverItem.9&amp;utparam=%7B%22aplus_abtest%22%3A%22c1a86b63c7257c5b4756ac46ac94b08c%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=524989298548&amp;mi_id=0000kpSpA3cmOzCeYQ_WibUnRqpwOZeOsjkkO7qnCM2xlUE&amp;ns=1&amp;priceTId=2147bf9517610441324846178e11d4&amp;skuId=3697749289427&amp;spm=a21n57.1.hoverItem.9&amp;utparam=%7B%22aplus_abtest%22%3A%22c1a86b63c7257c5b"/>
+    <hyperlink ref="D50" r:id="rId43" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=4171668697&amp;mi_id=0000xzkM10Hi5UdR9yUkIkpmwnJ782gCBFdITH6lgTdBb48&amp;ns=1&amp;priceTId=2100cffb17610443695026182e0935&amp;skuId=4388328190220&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22c427a3c50d0d36cdeca685408a13b5e0%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=4171668697&amp;mi_id=0000xzkM10Hi5UdR9yUkIkpmwnJ782gCBFdITH6lgTdBb48&amp;ns=1&amp;priceTId=2100cffb17610443695026182e0935&amp;skuId=4388328190220&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22c427a3c50d0d36c"/>
+    <hyperlink ref="D51" r:id="rId44" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=574455554348&amp;mi_id=0000XO_AZPALpeTS-7KLmbyFbtVuMJcvQBHdRSC82nTP_Cw&amp;ns=1&amp;priceTId=2100cffb17610444411018762e0935&amp;skuId=4818768319296&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22329bfff76060bff18aaa1a6b2907aef2%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=574455554348&amp;mi_id=0000XO_AZPALpeTS-7KLmbyFbtVuMJcvQBHdRSC82nTP_Cw&amp;ns=1&amp;priceTId=2100cffb17610444411018762e0935&amp;skuId=4818768319296&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22329bfff76060b"/>
+    <hyperlink ref="D52" r:id="rId45" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=19711178720&amp;mi_id=00001HJVRKk0DD79oQZNgDaG-x9iclKMNtFlJKHinGWmIDk&amp;ns=1&amp;priceTId=2100c80717610445243932086e08e8&amp;skuId=4556678918909&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%222f3d162016d100b74eba8c3659daee3b%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=19711178720&amp;mi_id=00001HJVRKk0DD79oQZNgDaG-x9iclKMNtFlJKHinGWmIDk&amp;ns=1&amp;priceTId=2100c80717610445243932086e08e8&amp;skuId=4556678918909&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%222f3d162016d10"/>
     <hyperlink ref="D53" r:id="rId46" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489063&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489063&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b2"/>
-    <hyperlink ref="D54" r:id="rId47" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489061&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D55" r:id="rId48" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489064&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D56" r:id="rId49" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489062&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D57" r:id="rId50" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5269976165838&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da960afd5b0b08d14f4de43%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D58" r:id="rId51" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5326903369490&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da960afd5b0b08d14f4de43%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D60" r:id="rId52" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=816280405659&amp;mi_id=0000ZrLGkYs5-zmEcvLhVR3d0v40c_DFCK54TTySCTRJST4&amp;ns=1&amp;priceTId=2147872017610453842587599e124b&amp;skuId=5513368284167&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%226722a4b3ede3f854736ddd0df8c1e35c%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D61" r:id="rId53" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=608761779424&amp;mi_id=0000x46AD_clhtG82mxTdFyg6SUOE44MS0WtWRdwYiRtgGM&amp;ns=1&amp;priceTId=2147bfaa17610454695064467e0f1d&amp;skuId=4269556912978&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%2251d88b83826fee5c78c54520a7e825ad%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D62" r:id="rId54" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=642328949457&amp;mi_id=000035A-Y_iMKkgvAmLSYYFWZrBIeprM2MFCoCh0DIaoMNw&amp;ns=1&amp;priceTId=214781b517610455673253802e0e56&amp;skuId=5139891040163&amp;spm=a21n57.imgsearch.item.7&amp;utparam=%7B%22aplus_abtest%22%3A%221dbc67956af89988ee7aa08f67692652%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D63" r:id="rId55" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=587629422215&amp;mi_id=0000Ga7M7KCZu6LZTFvjnsugBXOKYABd3tfACChG4w2ZG9U&amp;ns=1&amp;priceTId=2147835817610456707146352e0f70&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2296e354dc39704356407b28d6bccfea5c%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D64" r:id="rId56" display="https://item.taobao.com/item.htm?id=617339569668&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000HmZw35Z8kHTvEnFbUCLGB6OVWnJvN8JdNAREa7JcOzc&amp;skuId=4353638548193&amp;priceTId=2147835817610457077198617e0f70&amp;utparam=%7B%22aplus_abtest%22%3A%22f440f036e6ce443cefa2ab118523e7e2%22%7D&amp;spm=a21n57.1.hoverItem.1"/>
-    <hyperlink ref="D65" r:id="rId57" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=669602219973&amp;mi_id=0000WwQrGkGRlJ8wvlJc5Q6yMx9l14Y4JJRrsXMoE3RyY1c&amp;ns=1&amp;priceTId=2147835817610457523113510e0f70&amp;skuId=4817147909605&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22118f288bc7b28730bc850c0307773354%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D54" r:id="rId47" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489061&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489061&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b2"/>
+    <hyperlink ref="D55" r:id="rId48" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489064&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489064&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b2"/>
+    <hyperlink ref="D56" r:id="rId49" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489062&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b22ad3f7a1dad60483319%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=868363213659&amp;mi_id=0000WFndWJqy2PFmUVSoZWBAnVUqNATDQXs2AR4AcXbup7E&amp;ns=1&amp;priceTId=2100c80b17610445945397686e08f8&amp;skuId=5697153489062&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22114fcf48246b2"/>
+    <hyperlink ref="D57" r:id="rId50" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5269976165838&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da960afd5b0b08d14f4de43%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5269976165838&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da96"/>
+    <hyperlink ref="D58" r:id="rId51" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5326903369490&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da960afd5b0b08d14f4de43%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=544581954407&amp;mi_id=0000yiI0okMczSVM58hvlkiffRJxpl7x-67unSQG0NhmVSU&amp;ns=1&amp;priceTId=2147bf6917610450829527878e0e63&amp;skuId=5326903369490&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%2202c84ae68da96"/>
+    <hyperlink ref="D60" r:id="rId52" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=816280405659&amp;mi_id=0000ZrLGkYs5-zmEcvLhVR3d0v40c_DFCK54TTySCTRJST4&amp;ns=1&amp;priceTId=2147872017610453842587599e124b&amp;skuId=5513368284167&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%226722a4b3ede3f854736ddd0df8c1e35c%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=816280405659&amp;mi_id=0000ZrLGkYs5-zmEcvLhVR3d0v40c_DFCK54TTySCTRJST4&amp;ns=1&amp;priceTId=2147872017610453842587599e124b&amp;skuId=5513368284167&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%226722a4b3ede3f"/>
+    <hyperlink ref="D61" r:id="rId53" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=608761779424&amp;mi_id=0000x46AD_clhtG82mxTdFyg6SUOE44MS0WtWRdwYiRtgGM&amp;ns=1&amp;priceTId=2147bfaa17610454695064467e0f1d&amp;skuId=4269556912978&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%2251d88b83826fee5c78c54520a7e825ad%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=608761779424&amp;mi_id=0000x46AD_clhtG82mxTdFyg6SUOE44MS0WtWRdwYiRtgGM&amp;ns=1&amp;priceTId=2147bfaa17610454695064467e0f1d&amp;skuId=4269556912978&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%2251d88b83826f"/>
+    <hyperlink ref="D62" r:id="rId54" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=642328949457&amp;mi_id=000035A-Y_iMKkgvAmLSYYFWZrBIeprM2MFCoCh0DIaoMNw&amp;ns=1&amp;priceTId=214781b517610455673253802e0e56&amp;skuId=5139891040163&amp;spm=a21n57.imgsearch.item.7&amp;utparam=%7B%22aplus_abtest%22%3A%221dbc67956af89988ee7aa08f67692652%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=642328949457&amp;mi_id=000035A-Y_iMKkgvAmLSYYFWZrBIeprM2MFCoCh0DIaoMNw&amp;ns=1&amp;priceTId=214781b517610455673253802e0e56&amp;skuId=5139891040163&amp;spm=a21n57.imgsearch.item.7&amp;utparam=%7B%22aplus_abtest%22%3A%221dbc67956af89"/>
+    <hyperlink ref="D63" r:id="rId55" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=587629422215&amp;mi_id=0000Ga7M7KCZu6LZTFvjnsugBXOKYABd3tfACChG4w2ZG9U&amp;ns=1&amp;priceTId=2147835817610456707146352e0f70&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2296e354dc39704356407b28d6bccfea5c%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=587629422215&amp;mi_id=0000Ga7M7KCZu6LZTFvjnsugBXOKYABd3tfACChG4w2ZG9U&amp;ns=1&amp;priceTId=2147835817610456707146352e0f70&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2296e354dc39704356407b28d6bccfea5c%22%"/>
+    <hyperlink ref="D64" r:id="rId56" display="https://item.taobao.com/item.htm?id=617339569668&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000HmZw35Z8kHTvEnFbUCLGB6OVWnJvN8JdNAREa7JcOzc&amp;skuId=4353638548193&amp;priceTId=2147835817610457077198617e0f70&amp;utparam=%7B%22aplus_abtest%22%3A%22f440f036e6ce443cefa2ab118523e7e2%22%7D&amp;spm=a21n57.1.hoverItem.1" tooltip="https://item.taobao.com/item.htm?id=617339569668&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000HmZw35Z8kHTvEnFbUCLGB6OVWnJvN8JdNAREa7JcOzc&amp;skuId=4353638548193&amp;priceTId=2147835817610457077198617e0f70&amp;utparam=%7B%22aplus_abtest%22%3A%22f440f036e6ce443cefa2ab11"/>
+    <hyperlink ref="D65" r:id="rId57" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=669602219973&amp;mi_id=0000WwQrGkGRlJ8wvlJc5Q6yMx9l14Y4JJRrsXMoE3RyY1c&amp;ns=1&amp;priceTId=2147835817610457523113510e0f70&amp;skuId=4817147909605&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22118f288bc7b28730bc850c0307773354%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=669602219973&amp;mi_id=0000WwQrGkGRlJ8wvlJc5Q6yMx9l14Y4JJRrsXMoE3RyY1c&amp;ns=1&amp;priceTId=2147835817610457523113510e0f70&amp;skuId=4817147909605&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22118f288bc7b28730"/>
     <hyperlink ref="D66" r:id="rId58" display="None"/>
-    <hyperlink ref="D68" r:id="rId59" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065231&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D67" r:id="rId60" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065216&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D69" r:id="rId61" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065235&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D70" r:id="rId62" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761103&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D71" r:id="rId63" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761104&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D72" r:id="rId64" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch&amp;skuId=4966146761105"/>
-    <hyperlink ref="D73" r:id="rId65" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=874603009607&amp;mi_id=0000xq2LGXkE8CCp5YCGFcYXR0jArWDDcwAbpxNSeRqmW2U&amp;ns=1&amp;priceTId=2147bfd317610472781031854e0e67&amp;skuId=5877136618084&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%220778c425679ab557cca8367a5f216503%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D75" r:id="rId66" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=624598522050&amp;mi_id=0000UZEiDsC8zj6gbBuduDffj7tlk4d-gZ5HcPBsJQHR2gA&amp;ns=1&amp;priceTId=2147bfbf17610479059004843e0fee&amp;skuId=4589927946103&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ead1783a1ac21005802969d3ad82367b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D76" r:id="rId67" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=16694302505&amp;mi_id=0000PwvPfT_NdYJnXCTfvbuVWucVsZaBTLmsdKXmeec51Uw&amp;ns=1&amp;priceTId=2147bf6517610479536418354e0f81&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2284a8f60741e9800ac840bcc9c8ad241b%22%7D&amp;xxc=taobaoSearch&amp;skuId=4386679978738"/>
-    <hyperlink ref="D78" r:id="rId68" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=566368992647&amp;mi_id=00004JZFmP0lB22LMwWRFQylvI_sMn9bzKqUT9VaM30mfcg&amp;ns=1&amp;priceTId=213e08b517610481154332228e1034&amp;spm=a21n57.1.hoverItem.13&amp;utparam=%7B%22aplus_abtest%22%3A%22716b9199fbac3f2b8d6e46e00a296ef4%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D79" r:id="rId69" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=653158377503&amp;mi_id=0000ii6yRTiEUs2J86nwsx7bdMGZV9JwCJJhZLb3I8wDyyE&amp;ns=1&amp;priceTId=213e08b517610482268106168e1034&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%22c8daa3fea6755d5773ef8cbe0905a53e%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D80" r:id="rId70" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=978485513392&amp;mi_id=00003xeMJpebrnPJw7evL5qzK48MYLupeVMRlXQxxWZ6tfQ&amp;ns=1&amp;priceTId=2147bf7017610482982545986e0ece&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%221d9b1bf80ca037db9888c7dc6afe6be2%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D81" r:id="rId71" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=647814620424&amp;mi_id=0000TjKAaRm_UrGq4CJ5_NprWKiJIMSqTRbFhtr_ms_AKvs&amp;ns=1&amp;priceTId=2147bf7017610483557292124e0ece&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22f2e9e5b380053f9430cc10b7cf5c254d%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D82" r:id="rId72" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=884272430968&amp;mi_id=0000aacbAn5FMjvJTU2a6Bn4YmjGH0lQkNvACfxtMmYiYzM&amp;ns=1&amp;priceTId=2147bf7017610484127956325e0ece&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2249a36710f5832a8eeb33117fc49fce40%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D83" r:id="rId73" display="https://detail.tmall.com/item.htm?ali_refid=a3_430582_1006%3A1186300146%3AH%3A8sIoRVHnCoU%2F3QOpypFvczQapoKHiqpd%3Ac5e894a42cb08a615f2f89210a13dd32&amp;ali_trackid=282_c5e894a42cb08a615f2f89210a13dd32&amp;id=965621615037&amp;mi_id=0000A9TD3ypngO3wzZP_Ggo3LmCgF3APbQF0k9BMznTOXco&amp;mm_sceneid=1_0_242770121_0&amp;priceTId=2147873617610485480268894e1166&amp;skuId=6076898642518&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2273cafabcf9a848ebde5b32590c4bed75%22%7D&amp;xxc=ad_ztc"/>
-    <hyperlink ref="D84" r:id="rId74" display="https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1351050185%3AH%3An1aMXUKxiveSZ1iiSrAmKA%3D%3D%3A84423dd1bcb7fce18c6ae7c7f1b2f258&amp;ali_trackid=318_84423dd1bcb7fce18c6ae7c7f1b2f258&amp;id=899879693777&amp;mi_id=0000bw2geo3QwNxUE9zu6CMpxDzxbgL-8OxxDZ8BdU8RbqU&amp;mm_sceneid=0_0_158410076_0&amp;priceTId=215048b817610487015284681e171f&amp;skuId=5921493730879&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%2298f4a32f892fed7d7f032d1f6aac65e1%22%7D&amp;xxc=ad_ztc"/>
-    <hyperlink ref="D85" r:id="rId75" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=697345500643&amp;mi_id=0000sKDIiNgAfPjj5HVQmdilf6ydSUDIVF9NSC_AOlMuaiE&amp;ns=1&amp;priceTId=213e087317610494615955036e0f7e&amp;skuId=5116204271844&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2265517212dd219310ca6f28733bdf9192%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D87" r:id="rId76" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18151244641&amp;mi_id=00002hRlUj-mfhRD0CUWCu_sGa6BI_SVFABP99loHft0xm4&amp;ns=1&amp;priceTId=215048c017610499259902572e0eb5&amp;skuId=27448784984&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%22d80051ab3464eabc8302d265b8ed9c79%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D88" r:id="rId77" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=804013429898&amp;mi_id=0000BqM3PR-W8VNMbk0puzpWsfxeVDhdotDN4rl_m11YajI&amp;ns=1&amp;priceTId=215044b517610499962923105e1207&amp;skuId=5473222573641&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b75d15402c1a36a1678bf91ce8585a4%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D89" r:id="rId78" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=558745560679&amp;mi_id=00002IgQwnxbKwwVSsxhgErVOx3KFbj7Q_b7NaMXf3kH38c&amp;ns=1&amp;priceTId=2100c88b17610501151502564e08ff&amp;skuId=3642727326573&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ef0b93cf4caf69152e94e6adfd49db5c%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D90" r:id="rId79" display="https://item.taobao.com/item.htm?id=624884423532&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000F3_MxtZYWF9IuLh-e46-zEXa6sR6461mgmqNh-Wc_jw&amp;skuId=4593553687923&amp;priceTId=213e085c17610501533183058e1196&amp;utparam=%7B%22aplus_abtest%22%3A%22b6f364978421bf05b7fcf483b1293daa%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
-    <hyperlink ref="D91" r:id="rId80" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=527358185518&amp;mi_id=0000pKHPDUaWtRMa_AsYkUOOaHBv5vIPn0LQG42dng5cAtQ&amp;ns=1&amp;priceTId=2147871017610502376056762e0ea6&amp;skuId=3192479350234&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228d7a2976bd2999f88345e418ea66a6a2%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D92" r:id="rId81" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=888544471094&amp;mi_id=0000M6XyCnga6cabWxnD3s689MgCS2r1oiBJzh2fGapvrHU&amp;ns=1&amp;priceTId=2147885217610502772658268e0f0e&amp;skuId=5735234149082&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%22b3ed2c56a4688446a9f35b5b6012f807%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D93" r:id="rId82" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=855862722271&amp;mi_id=00003qubKZRIKtijNYEIvklQc0UQ3FMy8h_79c5yegI3iRM&amp;ns=1&amp;priceTId=2147808917610503255441635e1735&amp;skuId=6049912366417&amp;spm=a21n57.imgsearch.item.15&amp;utparam=%7B%22aplus_abtest%22%3A%22224d98a4cc59a201107686597fb364d9%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D68" r:id="rId59" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065231&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065231&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b"/>
+    <hyperlink ref="D67" r:id="rId60" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065216&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065216&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b"/>
+    <hyperlink ref="D69" r:id="rId61" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065235&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b7f29f761a446ff3a679%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=522575085023&amp;mi_id=0000i6hmfvCsqo50H0zCGjTz0Sk2tU-ChMW9v40VC_3Z9VE&amp;ns=1&amp;priceTId=2147818617610459169266685e0ec0&amp;skuId=5736029065235&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22836a5e2fa603b"/>
+    <hyperlink ref="D70" r:id="rId62" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761103&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761103&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca4"/>
+    <hyperlink ref="D71" r:id="rId63" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761104&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761104&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca4"/>
+    <hyperlink ref="D72" r:id="rId64" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch&amp;skuId=4966146761105" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%"/>
+    <hyperlink ref="D73" r:id="rId65" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=874603009607&amp;mi_id=0000xq2LGXkE8CCp5YCGFcYXR0jArWDDcwAbpxNSeRqmW2U&amp;ns=1&amp;priceTId=2147bfd317610472781031854e0e67&amp;skuId=5877136618084&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%220778c425679ab557cca8367a5f216503%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=874603009607&amp;mi_id=0000xq2LGXkE8CCp5YCGFcYXR0jArWDDcwAbpxNSeRqmW2U&amp;ns=1&amp;priceTId=2147bfd317610472781031854e0e67&amp;skuId=5877136618084&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%220778c425679ab55"/>
+    <hyperlink ref="D75" r:id="rId66" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=624598522050&amp;mi_id=0000UZEiDsC8zj6gbBuduDffj7tlk4d-gZ5HcPBsJQHR2gA&amp;ns=1&amp;priceTId=2147bfbf17610479059004843e0fee&amp;skuId=4589927946103&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ead1783a1ac21005802969d3ad82367b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=624598522050&amp;mi_id=0000UZEiDsC8zj6gbBuduDffj7tlk4d-gZ5HcPBsJQHR2gA&amp;ns=1&amp;priceTId=2147bfbf17610479059004843e0fee&amp;skuId=4589927946103&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ead1783a1ac21005"/>
+    <hyperlink ref="D76" r:id="rId67" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=16694302505&amp;mi_id=0000PwvPfT_NdYJnXCTfvbuVWucVsZaBTLmsdKXmeec51Uw&amp;ns=1&amp;priceTId=2147bf6517610479536418354e0f81&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2284a8f60741e9800ac840bcc9c8ad241b%22%7D&amp;xxc=taobaoSearch&amp;skuId=4386679978738" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=16694302505&amp;mi_id=0000PwvPfT_NdYJnXCTfvbuVWucVsZaBTLmsdKXmeec51Uw&amp;ns=1&amp;priceTId=2147bf6517610479536418354e0f81&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2284a8f60741e9800ac840bcc9c8ad241b%22%7"/>
+    <hyperlink ref="D78" r:id="rId68" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=566368992647&amp;mi_id=00004JZFmP0lB22LMwWRFQylvI_sMn9bzKqUT9VaM30mfcg&amp;ns=1&amp;priceTId=213e08b517610481154332228e1034&amp;spm=a21n57.1.hoverItem.13&amp;utparam=%7B%22aplus_abtest%22%3A%22716b9199fbac3f2b8d6e46e00a296ef4%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=566368992647&amp;mi_id=00004JZFmP0lB22LMwWRFQylvI_sMn9bzKqUT9VaM30mfcg&amp;ns=1&amp;priceTId=213e08b517610481154332228e1034&amp;spm=a21n57.1.hoverItem.13&amp;utparam=%7B%22aplus_abtest%22%3A%22716b9199fbac3f2b8d6e46e00a296ef4%22"/>
+    <hyperlink ref="D79" r:id="rId69" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=653158377503&amp;mi_id=0000ii6yRTiEUs2J86nwsx7bdMGZV9JwCJJhZLb3I8wDyyE&amp;ns=1&amp;priceTId=213e08b517610482268106168e1034&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%22c8daa3fea6755d5773ef8cbe0905a53e%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=653158377503&amp;mi_id=0000ii6yRTiEUs2J86nwsx7bdMGZV9JwCJJhZLb3I8wDyyE&amp;ns=1&amp;priceTId=213e08b517610482268106168e1034&amp;spm=a21n57.imgsearch.item.3&amp;utparam=%7B%22aplus_abtest%22%3A%22c8daa3fea6755d5773ef8cbe0905a53e%"/>
+    <hyperlink ref="D80" r:id="rId70" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=978485513392&amp;mi_id=00003xeMJpebrnPJw7evL5qzK48MYLupeVMRlXQxxWZ6tfQ&amp;ns=1&amp;priceTId=2147bf7017610482982545986e0ece&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%221d9b1bf80ca037db9888c7dc6afe6be2%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=978485513392&amp;mi_id=00003xeMJpebrnPJw7evL5qzK48MYLupeVMRlXQxxWZ6tfQ&amp;ns=1&amp;priceTId=2147bf7017610482982545986e0ece&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%221d9b1bf80ca037db9888c7dc6afe6be2%22%"/>
+    <hyperlink ref="D81" r:id="rId71" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=647814620424&amp;mi_id=0000TjKAaRm_UrGq4CJ5_NprWKiJIMSqTRbFhtr_ms_AKvs&amp;ns=1&amp;priceTId=2147bf7017610483557292124e0ece&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22f2e9e5b380053f9430cc10b7cf5c254d%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=647814620424&amp;mi_id=0000TjKAaRm_UrGq4CJ5_NprWKiJIMSqTRbFhtr_ms_AKvs&amp;ns=1&amp;priceTId=2147bf7017610483557292124e0ece&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22f2e9e5b380053f9430cc10b7cf5c254d%22%"/>
+    <hyperlink ref="D82" r:id="rId72" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=884272430968&amp;mi_id=0000aacbAn5FMjvJTU2a6Bn4YmjGH0lQkNvACfxtMmYiYzM&amp;ns=1&amp;priceTId=2147bf7017610484127956325e0ece&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2249a36710f5832a8eeb33117fc49fce40%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=884272430968&amp;mi_id=0000aacbAn5FMjvJTU2a6Bn4YmjGH0lQkNvACfxtMmYiYzM&amp;ns=1&amp;priceTId=2147bf7017610484127956325e0ece&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2249a36710f5832a8eeb33117fc49fce40%22%"/>
+    <hyperlink ref="D83" r:id="rId73" display="https://detail.tmall.com/item.htm?ali_refid=a3_430582_1006%3A1186300146%3AH%3A8sIoRVHnCoU%2F3QOpypFvczQapoKHiqpd%3Ac5e894a42cb08a615f2f89210a13dd32&amp;ali_trackid=282_c5e894a42cb08a615f2f89210a13dd32&amp;id=965621615037&amp;mi_id=0000A9TD3ypngO3wzZP_Ggo3LmCgF3APbQF0k9BMznTOXco&amp;mm_sceneid=1_0_242770121_0&amp;priceTId=2147873617610485480268894e1166&amp;skuId=6076898642518&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%2273cafabcf9a848ebde5b32590c4bed75%22%7D&amp;xxc=ad_ztc" tooltip="https://detail.tmall.com/item.htm?ali_refid=a3_430582_1006%3A1186300146%3AH%3A8sIoRVHnCoU%2F3QOpypFvczQapoKHiqpd%3Ac5e894a42cb08a615f2f89210a13dd32&amp;ali_trackid=282_c5e894a42cb08a615f2f89210a13dd32&amp;id=965621615037&amp;mi_id=0000A9TD3ypngO3wzZP_Ggo3LmCgF3APbQF0"/>
+    <hyperlink ref="D84" r:id="rId74" display="https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1351050185%3AH%3An1aMXUKxiveSZ1iiSrAmKA%3D%3D%3A84423dd1bcb7fce18c6ae7c7f1b2f258&amp;ali_trackid=318_84423dd1bcb7fce18c6ae7c7f1b2f258&amp;id=899879693777&amp;mi_id=0000bw2geo3QwNxUE9zu6CMpxDzxbgL-8OxxDZ8BdU8RbqU&amp;mm_sceneid=0_0_158410076_0&amp;priceTId=215048b817610487015284681e171f&amp;skuId=5921493730879&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%2298f4a32f892fed7d7f032d1f6aac65e1%22%7D&amp;xxc=ad_ztc" tooltip="https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1351050185%3AH%3An1aMXUKxiveSZ1iiSrAmKA%3D%3D%3A84423dd1bcb7fce18c6ae7c7f1b2f258&amp;ali_trackid=318_84423dd1bcb7fce18c6ae7c7f1b2f258&amp;id=899879693777&amp;mi_id=0000bw2geo3QwNxUE9zu6CMpxDzxbgL-8OxxDZ8BdU8"/>
+    <hyperlink ref="D85" r:id="rId75" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=697345500643&amp;mi_id=0000sKDIiNgAfPjj5HVQmdilf6ydSUDIVF9NSC_AOlMuaiE&amp;ns=1&amp;priceTId=213e087317610494615955036e0f7e&amp;skuId=5116204271844&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2265517212dd219310ca6f28733bdf9192%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=697345500643&amp;mi_id=0000sKDIiNgAfPjj5HVQmdilf6ydSUDIVF9NSC_AOlMuaiE&amp;ns=1&amp;priceTId=213e087317610494615955036e0f7e&amp;skuId=5116204271844&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2265517212dd219"/>
+    <hyperlink ref="D87" r:id="rId76" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=18151244641&amp;mi_id=00002hRlUj-mfhRD0CUWCu_sGa6BI_SVFABP99loHft0xm4&amp;ns=1&amp;priceTId=215048c017610499259902572e0eb5&amp;skuId=27448784984&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%22d80051ab3464eabc8302d265b8ed9c79%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=18151244641&amp;mi_id=00002hRlUj-mfhRD0CUWCu_sGa6BI_SVFABP99loHft0xm4&amp;ns=1&amp;priceTId=215048c017610499259902572e0eb5&amp;skuId=27448784984&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%22d80051ab3464eabc830"/>
+    <hyperlink ref="D88" r:id="rId77" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=804013429898&amp;mi_id=0000BqM3PR-W8VNMbk0puzpWsfxeVDhdotDN4rl_m11YajI&amp;ns=1&amp;priceTId=215044b517610499962923105e1207&amp;skuId=5473222573641&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b75d15402c1a36a1678bf91ce8585a4%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=804013429898&amp;mi_id=0000BqM3PR-W8VNMbk0puzpWsfxeVDhdotDN4rl_m11YajI&amp;ns=1&amp;priceTId=215044b517610499962923105e1207&amp;skuId=5473222573641&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%228b75d15402c1a"/>
+    <hyperlink ref="D89" r:id="rId78" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=558745560679&amp;mi_id=00002IgQwnxbKwwVSsxhgErVOx3KFbj7Q_b7NaMXf3kH38c&amp;ns=1&amp;priceTId=2100c88b17610501151502564e08ff&amp;skuId=3642727326573&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ef0b93cf4caf69152e94e6adfd49db5c%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=558745560679&amp;mi_id=00002IgQwnxbKwwVSsxhgErVOx3KFbj7Q_b7NaMXf3kH38c&amp;ns=1&amp;priceTId=2100c88b17610501151502564e08ff&amp;skuId=3642727326573&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22ef0b93cf4caf6"/>
+    <hyperlink ref="D90" r:id="rId79" display="https://item.taobao.com/item.htm?id=624884423532&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000F3_MxtZYWF9IuLh-e46-zEXa6sR6461mgmqNh-Wc_jw&amp;skuId=4593553687923&amp;priceTId=213e085c17610501533183058e1196&amp;utparam=%7B%22aplus_abtest%22%3A%22b6f364978421bf05b7fcf483b1293daa%22%7D&amp;spm=a21n57.imgsearch.item.1" tooltip="https://item.taobao.com/item.htm?id=624884423532&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000F3_MxtZYWF9IuLh-e46-zEXa6sR6461mgmqNh-Wc_jw&amp;skuId=4593553687923&amp;priceTId=213e085c17610501533183058e1196&amp;utparam=%7B%22aplus_abtest%22%3A%22b6f364978421bf05b7fcf483"/>
+    <hyperlink ref="D91" r:id="rId80" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=527358185518&amp;mi_id=0000pKHPDUaWtRMa_AsYkUOOaHBv5vIPn0LQG42dng5cAtQ&amp;ns=1&amp;priceTId=2147871017610502376056762e0ea6&amp;skuId=3192479350234&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228d7a2976bd2999f88345e418ea66a6a2%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=527358185518&amp;mi_id=0000pKHPDUaWtRMa_AsYkUOOaHBv5vIPn0LQG42dng5cAtQ&amp;ns=1&amp;priceTId=2147871017610502376056762e0ea6&amp;skuId=3192479350234&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%228d7a2976bd2999f8"/>
+    <hyperlink ref="D92" r:id="rId81" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=888544471094&amp;mi_id=0000M6XyCnga6cabWxnD3s689MgCS2r1oiBJzh2fGapvrHU&amp;ns=1&amp;priceTId=2147885217610502772658268e0f0e&amp;skuId=5735234149082&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%22b3ed2c56a4688446a9f35b5b6012f807%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=888544471094&amp;mi_id=0000M6XyCnga6cabWxnD3s689MgCS2r1oiBJzh2fGapvrHU&amp;ns=1&amp;priceTId=2147885217610502772658268e0f0e&amp;skuId=5735234149082&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%22b3ed2c56a468"/>
+    <hyperlink ref="D93" r:id="rId82" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=855862722271&amp;mi_id=00003qubKZRIKtijNYEIvklQc0UQ3FMy8h_79c5yegI3iRM&amp;ns=1&amp;priceTId=2147808917610503255441635e1735&amp;skuId=6049912366417&amp;spm=a21n57.imgsearch.item.15&amp;utparam=%7B%22aplus_abtest%22%3A%22224d98a4cc59a201107686597fb364d9%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=855862722271&amp;mi_id=00003qubKZRIKtijNYEIvklQc0UQ3FMy8h_79c5yegI3iRM&amp;ns=1&amp;priceTId=2147808917610503255441635e1735&amp;skuId=6049912366417&amp;spm=a21n57.imgsearch.item.15&amp;utparam=%7B%22aplus_abtest%22%3A%22224d98a4cc59"/>
     <hyperlink ref="D94" r:id="rId83" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=582673305537&amp;mi_id=0000ewnPq1HWGzT52FqXT5GW9xs6jOYQZe3M97ICqPTrF9E&amp;ns=1&amp;priceTId=2147876717610503826995428e103e&amp;skuId=3910601032777&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%2294a728ac6722500d62756ab86ec7a3fb%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=582673305537&amp;mi_id=0000ewnPq1HWGzT52FqXT5GW9xs6jOYQZe3M97ICqPTrF9E&amp;ns=1&amp;priceTId=2147876717610503826995428e103e&amp;skuId=3910601032777&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%2294a728ac6722"/>
-    <hyperlink ref="D95" r:id="rId84" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=670620707877&amp;mi_id=0000Q6h32hkbY9U6BSyP0J55vnJrl0ABo1se2cF22w4LZ2s&amp;ns=1&amp;priceTId=2147878a17610504412895591e1163&amp;skuId=4992655138950&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%224462380b98ab27053b38bbd3e7e435c4%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D96" r:id="rId85" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=552830501476&amp;mi_id=0000M3ivDnU-5kehVGlprHIT3bDzWt2liAWs6WGKbYY0kdw&amp;ns=1&amp;priceTId=2147bf5a17610504901715424e0eab&amp;skuId=4053736892754&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22fdf14c90be4166584c1189c470fe08d9%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D98" r:id="rId86" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=917735191994&amp;mi_id=00009NOMH-X7ro7QPl0FYk3kcVgkU6J_Sd_LaIlMDEQtx9Y&amp;ns=1&amp;priceTId=2150422217610506284266187e1102&amp;skuId=5953907278011&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%225ba3f4a5b2aa4702c2fc3b9f37c4f90f%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D100" r:id="rId87" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=730934161231&amp;mi_id=00008dG1T7i1q9J7DS4HWmCAgkoJ9VyJ_Dhza1qEcRgp1xE&amp;ns=1&amp;priceTId=2150422217610508308316855e1102&amp;skuId=5069711233654&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2293acdcc9bc323d8da95d5939039c97e9%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D101" r:id="rId88" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=756994061542&amp;mi_id=0000c-2jHNOAzUE6DIWGobOLfsPiNI4XInj287w_GD1N3TA&amp;ns=1&amp;priceTId=2150473917610509590172954e0df8&amp;skuId=5218427624180&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%226769e375cce1ee19032cd8722d06131a%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D102" r:id="rId89" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=693629586152&amp;mi_id=0000u6oDsO3tqSLLrSuVENVUTfFYBkcvXOSRDTNcRiC6EcY&amp;ns=1&amp;priceTId=213e08d917610509921268155e0f7e&amp;skuId=4925328353922&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%223d9793e0450f52ed39270ec9a01f4d50%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D103" r:id="rId90" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=768646328985&amp;mi_id=0000w3PvXQtI_Xyc0B2Hb5LJcav8WcrlNAzFf43QjktoYZc&amp;ns=1&amp;priceTId=213e08c517610510814968263e10cd&amp;skuId=5271914264959&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b721416402a41b5cde3e96d8f6a15756%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D104" r:id="rId91" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19531861991&amp;mi_id=0000_RUOH3AOSzxTinqt8Bc_Qpa2Mn3OQ-cS_E8V7cwV8oc&amp;ns=1&amp;priceTId=213e08c517610511287353813e10cd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22e54958e651b3313026cd891460aa6c3c%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D105" r:id="rId92" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=987174533242&amp;mi_id=0000AEJEFlQzpSBpbHYItTVAQcNNI11ov_r7qBSc-9TYIIQ&amp;ns=1&amp;priceTId=213e03ea17610511618976737e0fdd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22256a8d02a519c6e8b21199657f47c6ef%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D106" r:id="rId93" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=39511503383&amp;mi_id=0000re57xopkwYVGbtejiWrIy2atwpZlyFmKmkNn2A3i1TI&amp;ns=1&amp;priceTId=213e08c917610511979697139e0ff5&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d6ebb4ecb17d15b790c0460222a4fd8d%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D107" r:id="rId94" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=40787327161&amp;mi_id=0000CHfdZfm6QyysMuheRUuAUPyCqDx56cO730kT_8ScNH4&amp;ns=1&amp;priceTId=213e084417610512642813971e0e8a&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2216349e8c1359258a7303d8215408c350%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D109" r:id="rId95" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=623401908417&amp;mi_id=0000SiGKcmgN0qoMN9wKUfbJJCgtLaZaHlfL1z_v7bFW4fU&amp;ns=1&amp;priceTId=2147861f17610513319014102e1968&amp;skuId=4415397193993&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%227c19fbf6259973d4d95e06c0e83ded66%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D110" r:id="rId96" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=873656884962&amp;mi_id=0000tVUWyHwVKnpL2VLpwdquVzx60DmVd-FuKUnRx2YJMaU&amp;ns=1&amp;priceTId=2100c80d17610514163173496e0904&amp;skuId=5891587526825&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%22c37c2c9035fcd5b597e3f22c01bb1d78%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D111" r:id="rId97" display="https://item.taobao.com/item.htm?id=815109509382&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uYxpuhV8hXoDHM2x4YLuzIQZAnI-bC2PD4X7q-JMClU&amp;skuId=null&amp;priceTId=2100c89717610515328818745e090d&amp;utparam=%7B%22aplus_abtest%22%3A%22b6a46b3c39650027ff970ccac8e24f97%22%7D&amp;spm=a21n57.1.hoverItem.2"/>
-    <hyperlink ref="D113" r:id="rId98" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=618747076131&amp;mi_id=0000VVWYs6N6Rsv8XS-PIM720TXHSQ2I8oCPKO3sw5oJZqE&amp;ns=1&amp;priceTId=2150491117610981582055519e0ed2&amp;skuId=4545530971841&amp;spm=a21n57.1.hoverItem.16&amp;utparam=%7B%22aplus_abtest%22%3A%225ebb8190e14318f752ccf79b864f0f88%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D114" r:id="rId99" display="https://item.taobao.com/item.htm?id=681609889897&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uHR-61u5J-znrbX-srkMA738AxtfCajbUi-6rQLdnrs&amp;skuId=4884674673366&amp;priceTId=215048b917610982415134915e1784&amp;utparam=%7B%22aplus_abtest%22%3A%22fbc72dc81dbc08f8476473456108f008%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
-    <hyperlink ref="D115" r:id="rId100" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=669570807944&amp;mi_id=000044W3vWc4cl8layfj3vVf6i0LxO-LnJmK-80zqE71XtA&amp;ns=1&amp;priceTId=215044be17610982787996174e1090&amp;skuId=6096961646542&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%220e4c2864e01fd7daf54dd68946a85c6b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D116" r:id="rId101" display="https://item.taobao.com/item.htm?id=574524799299&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=00009BVTnf-BQB7y1Nc290kRPik0jF9IdpsUkbwzJFhVeD0&amp;priceTId=215048cd17610984217965731e11b1&amp;utparam=%7B%22aplus_abtest%22%3A%228e81830a73a4a58d14c774c34a0446b5%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
-    <hyperlink ref="D117" r:id="rId102" display="https://item.taobao.com/item.htm?id=26461756959&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000fWxfnfXP7L7sO5Pp_bJZs9oj8NUzFHO6i8NnoCIt68g&amp;skuId=65937336241&amp;priceTId=215049b517610984603237652e1181&amp;utparam=%7B%22aplus_abtest%22%3A%224bf638efe6c1898c90cc8df1045c2351%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
-    <hyperlink ref="D118" r:id="rId103" display="https://item.taobao.com/item.htm?id=832128231277&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000hyrtaTCgvHABgNqa-AAVsOkqSSdtQlfgkr-LPWVmlIE&amp;skuId=5745786619208&amp;priceTId=2150407e17610984964692572e1120&amp;utparam=%7B%22aplus_abtest%22%3A%22cdb092202b8a42d637f6671b4078608e%22%7D&amp;spm=a21n57.imgsearch.item.1"/>
-    <hyperlink ref="D119" r:id="rId104" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263479&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D120" r:id="rId105" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263497&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="D121" r:id="rId106" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263492&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D95" r:id="rId84" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=670620707877&amp;mi_id=0000Q6h32hkbY9U6BSyP0J55vnJrl0ABo1se2cF22w4LZ2s&amp;ns=1&amp;priceTId=2147878a17610504412895591e1163&amp;skuId=4992655138950&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%224462380b98ab27053b38bbd3e7e435c4%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=670620707877&amp;mi_id=0000Q6h32hkbY9U6BSyP0J55vnJrl0ABo1se2cF22w4LZ2s&amp;ns=1&amp;priceTId=2147878a17610504412895591e1163&amp;skuId=4992655138950&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%224462380b98ab2"/>
+    <hyperlink ref="D96" r:id="rId85" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=552830501476&amp;mi_id=0000M3ivDnU-5kehVGlprHIT3bDzWt2liAWs6WGKbYY0kdw&amp;ns=1&amp;priceTId=2147bf5a17610504901715424e0eab&amp;skuId=4053736892754&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22fdf14c90be4166584c1189c470fe08d9%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=552830501476&amp;mi_id=0000M3ivDnU-5kehVGlprHIT3bDzWt2liAWs6WGKbYY0kdw&amp;ns=1&amp;priceTId=2147bf5a17610504901715424e0eab&amp;skuId=4053736892754&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22fdf14c90be416"/>
+    <hyperlink ref="D98" r:id="rId86" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=917735191994&amp;mi_id=00009NOMH-X7ro7QPl0FYk3kcVgkU6J_Sd_LaIlMDEQtx9Y&amp;ns=1&amp;priceTId=2150422217610506284266187e1102&amp;skuId=5953907278011&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%225ba3f4a5b2aa4702c2fc3b9f37c4f90f%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=917735191994&amp;mi_id=00009NOMH-X7ro7QPl0FYk3kcVgkU6J_Sd_LaIlMDEQtx9Y&amp;ns=1&amp;priceTId=2150422217610506284266187e1102&amp;skuId=5953907278011&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%225ba3f4a5b2aa4"/>
+    <hyperlink ref="D100" r:id="rId87" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=730934161231&amp;mi_id=00008dG1T7i1q9J7DS4HWmCAgkoJ9VyJ_Dhza1qEcRgp1xE&amp;ns=1&amp;priceTId=2150422217610508308316855e1102&amp;skuId=5069711233654&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2293acdcc9bc323d8da95d5939039c97e9%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=730934161231&amp;mi_id=00008dG1T7i1q9J7DS4HWmCAgkoJ9VyJ_Dhza1qEcRgp1xE&amp;ns=1&amp;priceTId=2150422217610508308316855e1102&amp;skuId=5069711233654&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%2293acdcc9bc323"/>
+    <hyperlink ref="D101" r:id="rId88" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=756994061542&amp;mi_id=0000c-2jHNOAzUE6DIWGobOLfsPiNI4XInj287w_GD1N3TA&amp;ns=1&amp;priceTId=2150473917610509590172954e0df8&amp;skuId=5218427624180&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%226769e375cce1ee19032cd8722d06131a%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=756994061542&amp;mi_id=0000c-2jHNOAzUE6DIWGobOLfsPiNI4XInj287w_GD1N3TA&amp;ns=1&amp;priceTId=2150473917610509590172954e0df8&amp;skuId=5218427624180&amp;spm=a21n57.imgsearch.item.5&amp;utparam=%7B%22aplus_abtest%22%3A%226769e375cce1e"/>
+    <hyperlink ref="D102" r:id="rId89" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=693629586152&amp;mi_id=0000u6oDsO3tqSLLrSuVENVUTfFYBkcvXOSRDTNcRiC6EcY&amp;ns=1&amp;priceTId=213e08d917610509921268155e0f7e&amp;skuId=4925328353922&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%223d9793e0450f52ed39270ec9a01f4d50%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=693629586152&amp;mi_id=0000u6oDsO3tqSLLrSuVENVUTfFYBkcvXOSRDTNcRiC6EcY&amp;ns=1&amp;priceTId=213e08d917610509921268155e0f7e&amp;skuId=4925328353922&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%223d9793e0450f5"/>
+    <hyperlink ref="D103" r:id="rId90" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=768646328985&amp;mi_id=0000w3PvXQtI_Xyc0B2Hb5LJcav8WcrlNAzFf43QjktoYZc&amp;ns=1&amp;priceTId=213e08c517610510814968263e10cd&amp;skuId=5271914264959&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b721416402a41b5cde3e96d8f6a15756%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=768646328985&amp;mi_id=0000w3PvXQtI_Xyc0B2Hb5LJcav8WcrlNAzFf43QjktoYZc&amp;ns=1&amp;priceTId=213e08c517610510814968263e10cd&amp;skuId=5271914264959&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b721416402a41b5c"/>
+    <hyperlink ref="D104" r:id="rId91" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=19531861991&amp;mi_id=0000_RUOH3AOSzxTinqt8Bc_Qpa2Mn3OQ-cS_E8V7cwV8oc&amp;ns=1&amp;priceTId=213e08c517610511287353813e10cd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22e54958e651b3313026cd891460aa6c3c%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=19531861991&amp;mi_id=0000_RUOH3AOSzxTinqt8Bc_Qpa2Mn3OQ-cS_E8V7cwV8oc&amp;ns=1&amp;priceTId=213e08c517610511287353813e10cd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22e54958e651b3313026cd891460aa6c3c%2"/>
+    <hyperlink ref="D105" r:id="rId92" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=987174533242&amp;mi_id=0000AEJEFlQzpSBpbHYItTVAQcNNI11ov_r7qBSc-9TYIIQ&amp;ns=1&amp;priceTId=213e03ea17610511618976737e0fdd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22256a8d02a519c6e8b21199657f47c6ef%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=987174533242&amp;mi_id=0000AEJEFlQzpSBpbHYItTVAQcNNI11ov_r7qBSc-9TYIIQ&amp;ns=1&amp;priceTId=213e03ea17610511618976737e0fdd&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22256a8d02a519c6e8b21199657f47c6ef%"/>
+    <hyperlink ref="D106" r:id="rId93" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=39511503383&amp;mi_id=0000re57xopkwYVGbtejiWrIy2atwpZlyFmKmkNn2A3i1TI&amp;ns=1&amp;priceTId=213e08c917610511979697139e0ff5&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d6ebb4ecb17d15b790c0460222a4fd8d%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=39511503383&amp;mi_id=0000re57xopkwYVGbtejiWrIy2atwpZlyFmKmkNn2A3i1TI&amp;ns=1&amp;priceTId=213e08c917610511979697139e0ff5&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%22d6ebb4ecb17d15b790c0460222a4fd8d%2"/>
+    <hyperlink ref="D107" r:id="rId94" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=40787327161&amp;mi_id=0000CHfdZfm6QyysMuheRUuAUPyCqDx56cO730kT_8ScNH4&amp;ns=1&amp;priceTId=213e084417610512642813971e0e8a&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2216349e8c1359258a7303d8215408c350%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=40787327161&amp;mi_id=0000CHfdZfm6QyysMuheRUuAUPyCqDx56cO730kT_8ScNH4&amp;ns=1&amp;priceTId=213e084417610512642813971e0e8a&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2216349e8c1359258a7303d8215408c350%2"/>
+    <hyperlink ref="D109" r:id="rId95" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=623401908417&amp;mi_id=0000SiGKcmgN0qoMN9wKUfbJJCgtLaZaHlfL1z_v7bFW4fU&amp;ns=1&amp;priceTId=2147861f17610513319014102e1968&amp;skuId=4415397193993&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%227c19fbf6259973d4d95e06c0e83ded66%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=623401908417&amp;mi_id=0000SiGKcmgN0qoMN9wKUfbJJCgtLaZaHlfL1z_v7bFW4fU&amp;ns=1&amp;priceTId=2147861f17610513319014102e1968&amp;skuId=4415397193993&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%227c19fbf62599"/>
+    <hyperlink ref="D110" r:id="rId96" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=873656884962&amp;mi_id=0000tVUWyHwVKnpL2VLpwdquVzx60DmVd-FuKUnRx2YJMaU&amp;ns=1&amp;priceTId=2100c80d17610514163173496e0904&amp;skuId=5891587526825&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%22c37c2c9035fcd5b597e3f22c01bb1d78%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=873656884962&amp;mi_id=0000tVUWyHwVKnpL2VLpwdquVzx60DmVd-FuKUnRx2YJMaU&amp;ns=1&amp;priceTId=2100c80d17610514163173496e0904&amp;skuId=5891587526825&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%22c37c2c9035fc"/>
+    <hyperlink ref="D111" r:id="rId97" display="https://item.taobao.com/item.htm?id=815109509382&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uYxpuhV8hXoDHM2x4YLuzIQZAnI-bC2PD4X7q-JMClU&amp;skuId=null&amp;priceTId=2100c89717610515328818745e090d&amp;utparam=%7B%22aplus_abtest%22%3A%22b6a46b3c39650027ff970ccac8e24f97%22%7D&amp;spm=a21n57.1.hoverItem.2" tooltip="https://item.taobao.com/item.htm?id=815109509382&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uYxpuhV8hXoDHM2x4YLuzIQZAnI-bC2PD4X7q-JMClU&amp;skuId=null&amp;priceTId=2100c89717610515328818745e090d&amp;utparam=%7B%22aplus_abtest%22%3A%22b6a46b3c39650027ff970ccac8e24f97%"/>
+    <hyperlink ref="D113" r:id="rId98" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=618747076131&amp;mi_id=0000VVWYs6N6Rsv8XS-PIM720TXHSQ2I8oCPKO3sw5oJZqE&amp;ns=1&amp;priceTId=2150491117610981582055519e0ed2&amp;skuId=4545530971841&amp;spm=a21n57.1.hoverItem.16&amp;utparam=%7B%22aplus_abtest%22%3A%225ebb8190e14318f752ccf79b864f0f88%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=8&amp;id=618747076131&amp;mi_id=0000VVWYs6N6Rsv8XS-PIM720TXHSQ2I8oCPKO3sw5oJZqE&amp;ns=1&amp;priceTId=2150491117610981582055519e0ed2&amp;skuId=4545530971841&amp;spm=a21n57.1.hoverItem.16&amp;utparam=%7B%22aplus_abtest%22%3A%225ebb8190e14318f"/>
+    <hyperlink ref="D114" r:id="rId99" display="https://item.taobao.com/item.htm?id=681609889897&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uHR-61u5J-znrbX-srkMA738AxtfCajbUi-6rQLdnrs&amp;skuId=4884674673366&amp;priceTId=215048b917610982415134915e1784&amp;utparam=%7B%22aplus_abtest%22%3A%22fbc72dc81dbc08f8476473456108f008%22%7D&amp;spm=a21n57.imgsearch.item.1" tooltip="https://item.taobao.com/item.htm?id=681609889897&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000uHR-61u5J-znrbX-srkMA738AxtfCajbUi-6rQLdnrs&amp;skuId=4884674673366&amp;priceTId=215048b917610982415134915e1784&amp;utparam=%7B%22aplus_abtest%22%3A%22fbc72dc81dbc08f847647345"/>
+    <hyperlink ref="D115" r:id="rId100" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=669570807944&amp;mi_id=000044W3vWc4cl8layfj3vVf6i0LxO-LnJmK-80zqE71XtA&amp;ns=1&amp;priceTId=215044be17610982787996174e1090&amp;skuId=6096961646542&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%220e4c2864e01fd7daf54dd68946a85c6b%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=669570807944&amp;mi_id=000044W3vWc4cl8layfj3vVf6i0LxO-LnJmK-80zqE71XtA&amp;ns=1&amp;priceTId=215044be17610982787996174e1090&amp;skuId=6096961646542&amp;spm=a21n57.imgsearch.item.6&amp;utparam=%7B%22aplus_abtest%22%3A%220e4c2864e01f"/>
+    <hyperlink ref="D116" r:id="rId101" display="https://item.taobao.com/item.htm?id=574524799299&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=00009BVTnf-BQB7y1Nc290kRPik0jF9IdpsUkbwzJFhVeD0&amp;priceTId=215048cd17610984217965731e11b1&amp;utparam=%7B%22aplus_abtest%22%3A%228e81830a73a4a58d14c774c34a0446b5%22%7D&amp;spm=a21n57.imgsearch.item.1" tooltip="https://item.taobao.com/item.htm?id=574524799299&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=00009BVTnf-BQB7y1Nc290kRPik0jF9IdpsUkbwzJFhVeD0&amp;priceTId=215048cd17610984217965731e11b1&amp;utparam=%7B%22aplus_abtest%22%3A%228e81830a73a4a58d14c774c34a0446b5%22%7D&amp;spm=a"/>
+    <hyperlink ref="D117" r:id="rId102" display="https://item.taobao.com/item.htm?id=26461756959&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000fWxfnfXP7L7sO5Pp_bJZs9oj8NUzFHO6i8NnoCIt68g&amp;skuId=65937336241&amp;priceTId=215049b517610984603237652e1181&amp;utparam=%7B%22aplus_abtest%22%3A%224bf638efe6c1898c90cc8df1045c2351%22%7D&amp;spm=a21n57.imgsearch.item.1" tooltip="https://item.taobao.com/item.htm?id=26461756959&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000fWxfnfXP7L7sO5Pp_bJZs9oj8NUzFHO6i8NnoCIt68g&amp;skuId=65937336241&amp;priceTId=215049b517610984603237652e1181&amp;utparam=%7B%22aplus_abtest%22%3A%224bf638efe6c1898c90cc8df1045"/>
+    <hyperlink ref="D118" r:id="rId103" display="https://item.taobao.com/item.htm?id=832128231277&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000hyrtaTCgvHABgNqa-AAVsOkqSSdtQlfgkr-LPWVmlIE&amp;skuId=5745786619208&amp;priceTId=2150407e17610984964692572e1120&amp;utparam=%7B%22aplus_abtest%22%3A%22cdb092202b8a42d637f6671b4078608e%22%7D&amp;spm=a21n57.imgsearch.item.1" tooltip="https://item.taobao.com/item.htm?id=832128231277&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;mi_id=0000hyrtaTCgvHABgNqa-AAVsOkqSSdtQlfgkr-LPWVmlIE&amp;skuId=5745786619208&amp;priceTId=2150407e17610984964692572e1120&amp;utparam=%7B%22aplus_abtest%22%3A%22cdb092202b8a42d637f6671b"/>
+    <hyperlink ref="D119" r:id="rId104" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263479&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263479&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a"/>
+    <hyperlink ref="D120" r:id="rId105" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263497&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263497&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a"/>
+    <hyperlink ref="D121" r:id="rId106" display="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263492&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch" tooltip="https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263492&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a"/>
+    <hyperlink ref="D29" r:id="rId107" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=924240529863&amp;mi_id=00005ALcPxQC75psPSOwwOu8X2hwlXy3VNqsxqgoWSYqcDY&amp;ns=1&amp;priceTId=214787ed17610430242833186e10e6&amp;skuId=5803612313712&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22eda3c24ba699d3a84de49756405f38a0%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="D74" r:id="rId108" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=705946722634&amp;mi_id=00006-8RXWthYKiG__DVOguaQ_YgnUiry-9tSPIGexPbNP8&amp;ns=1&amp;priceTId=2147878b17610465195564144e0e3f&amp;skuId=4966146761108&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2228be6ad719623ca40102f0ab78b4b8b5%22%7D&amp;xxc=taobaoSearch"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -389,7 +389,7 @@
     <t>Photo cell (CdS photoresistor)</t>
   </si>
   <si>
-    <t>Risym 5516 光敏电阻 光电开关 传感器 检测元件</t>
+    <t>Risym 5516 光敏电阻 光电开关 传感器 检测元件 5MM (10个)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=19055956318&amp;mi_id=0000OxSgXvDKFyKJRFLAZzvpXLMqzJSFTL4S4PdB-l5SzPY&amp;ns=1&amp;priceTId=2147812817610439084291432e1221&amp;spm=a21n57.imgsearch.item.1&amp;utparam=%7B%22aplus_abtest%22%3A%2280fa8a84b790db67a41ad1b9fe2a177b%22%7D&amp;xxc=taobaoSearch</t>
@@ -1004,7 +1004,7 @@
     <t>Rapid JW-D1-FF Jumper Wires Dupont Cable F-F 26AWG 1 Pin 2.54mm Pitch-15cm Pk10</t>
   </si>
   <si>
-    <t>杜邦线母对母</t>
+    <t>杜邦线母对母(10条)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263479&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch</t>
@@ -1013,7 +1013,7 @@
     <t>Rapid JW-D1-MM Jumper Wires Dupont Cable M-M 26AWG 1 Pin 2.54mm Pitch-15cm Pk10</t>
   </si>
   <si>
-    <t>杜邦线公对公</t>
+    <t>杜邦线公对公(10条)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263497&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch</t>
@@ -1022,7 +1022,7 @@
     <t>Rapid JW-D1-MF Jumper Wires Dupont Cable M-F 26AWG 1 Pin 2.54mm Pitch-15cm Pk10</t>
   </si>
   <si>
-    <t>杜邦线公对母</t>
+    <t>杜邦线公对母(10条)</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=570260208194&amp;mi_id=00002YuwAvQENlPeabit6auTHb6Vpa8Wk1Fj4hd8Uv5PaRA&amp;ns=1&amp;priceTId=2150476017610985289508880e0fd4&amp;skuId=5922775263492&amp;spm=a21n57.imgsearch.item.2&amp;utparam=%7B%22aplus_abtest%22%3A%22091a2a244d7a25113167ac3faea0d7e8%22%7D&amp;xxc=taobaoSearch</t>
@@ -2200,8 +2200,8 @@
   <sheetPr/>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B117" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2588,7 +2588,7 @@
       <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="1">
@@ -2605,7 +2605,7 @@
       <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       <c r="C29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       <c r="C31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       <c r="C32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="C33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       <c r="C34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="C35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       <c r="C36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       <c r="C38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       <c r="C41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="C42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="C43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       <c r="C44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       <c r="C45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       <c r="C47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="C48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       <c r="C49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       <c r="C50" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       <c r="C51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       <c r="C52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       <c r="C63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       <c r="C64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       <c r="C65" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       <c r="C67" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       <c r="C69" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       <c r="C71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       <c r="C73" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="C74" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       <c r="C75" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="C76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       <c r="C78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       <c r="C79" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       <c r="C80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       <c r="C81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       <c r="C82" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       <c r="C83" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="C84" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       <c r="C85" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="C87" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="C88" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       <c r="C89" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       <c r="C90" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       <c r="C91" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       <c r="C92" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       <c r="C93" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="C96" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       <c r="C98" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       <c r="C100" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       <c r="C101" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="C102" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       <c r="C103" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       <c r="C104" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       <c r="C105" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="C106" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="C107" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="C109" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       <c r="C110" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       <c r="C111" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       <c r="C113" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       <c r="C114" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       <c r="C115" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       <c r="C116" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       <c r="C117" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>319</v>
       </c>
     </row>
